--- a/Optimization/Gurobi/Children+Elderly+hcw/Exact fraction/3 districts/fraction-exact-3-dist.xlsx
+++ b/Optimization/Gurobi/Children+Elderly+hcw/Exact fraction/3 districts/fraction-exact-3-dist.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\IITD\personal\BTP\code\BTP\optimization\Gurobi\Children+Elderly+hcw\Exact fraction\3 districts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F08F29-EC32-409D-AC73-C5CE8A702925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -21190,8 +21196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21254,6 +21260,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -21300,7 +21314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21332,9 +21346,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21366,6 +21398,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -21541,14 +21591,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AC264" workbookViewId="0">
+      <selection activeCell="AO285" sqref="AO285"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="41" max="41" width="13.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21642,7 +21697,7 @@
       </c>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -21731,7 +21786,7 @@
         <v>925</v>
       </c>
       <c r="AD2">
-        <v>128.996</v>
+        <v>128.99600000000001</v>
       </c>
       <c r="AE2" t="s">
         <v>934</v>
@@ -21782,7 +21837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -21859,7 +21914,7 @@
         <v>926</v>
       </c>
       <c r="AD3">
-        <v>254.265</v>
+        <v>254.26499999999999</v>
       </c>
       <c r="AE3" t="s">
         <v>937</v>
@@ -21883,7 +21938,7 @@
         <v>1907</v>
       </c>
       <c r="AL3">
-        <v>69.905</v>
+        <v>69.905000000000001</v>
       </c>
       <c r="AM3" t="s">
         <v>1936</v>
@@ -21910,7 +21965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -22035,10 +22090,10 @@
         <v>4959</v>
       </c>
       <c r="AT4">
-        <v>45.549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
+        <v>45.548999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -22163,10 +22218,10 @@
         <v>4960</v>
       </c>
       <c r="AT5">
-        <v>30.299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
+        <v>30.298999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -22243,7 +22298,7 @@
         <v>929</v>
       </c>
       <c r="AD6">
-        <v>83.70700000000001</v>
+        <v>83.707000000000008</v>
       </c>
       <c r="AE6" t="s">
         <v>946</v>
@@ -22267,7 +22322,7 @@
         <v>1910</v>
       </c>
       <c r="AL6">
-        <v>272.348</v>
+        <v>272.34800000000001</v>
       </c>
       <c r="AM6" t="s">
         <v>1945</v>
@@ -22294,7 +22349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -22371,7 +22426,7 @@
         <v>930</v>
       </c>
       <c r="AD7">
-        <v>89.13799999999999</v>
+        <v>89.137999999999991</v>
       </c>
       <c r="AE7" t="s">
         <v>949</v>
@@ -22395,7 +22450,7 @@
         <v>1911</v>
       </c>
       <c r="AL7">
-        <v>338.3030000000001</v>
+        <v>338.30300000000011</v>
       </c>
       <c r="AM7" t="s">
         <v>1948</v>
@@ -22422,7 +22477,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -22523,7 +22578,7 @@
         <v>1912</v>
       </c>
       <c r="AL8">
-        <v>202.973</v>
+        <v>202.97300000000001</v>
       </c>
       <c r="AM8" t="s">
         <v>1951</v>
@@ -22547,10 +22602,10 @@
         <v>4963</v>
       </c>
       <c r="AT8">
-        <v>46.339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46">
+        <v>46.338999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -22675,10 +22730,10 @@
         <v>4964</v>
       </c>
       <c r="AT9">
-        <v>25.929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
+        <v>25.928999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -22779,7 +22834,7 @@
         <v>1914</v>
       </c>
       <c r="AL10">
-        <v>275.65</v>
+        <v>275.64999999999998</v>
       </c>
       <c r="AM10" t="s">
         <v>1957</v>
@@ -22806,7 +22861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -22901,7 +22956,7 @@
         <v>1915</v>
       </c>
       <c r="AL11">
-        <v>321.018</v>
+        <v>321.01799999999997</v>
       </c>
       <c r="AM11" t="s">
         <v>1960</v>
@@ -22925,10 +22980,10 @@
         <v>4966</v>
       </c>
       <c r="AT11">
-        <v>35.627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
+        <v>35.627000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -23047,10 +23102,10 @@
         <v>4967</v>
       </c>
       <c r="AT12">
-        <v>387.891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46">
+        <v>387.89100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -23169,10 +23224,10 @@
         <v>4968</v>
       </c>
       <c r="AT13">
-        <v>387.891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
+        <v>387.89100000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -23255,10 +23310,10 @@
         <v>4969</v>
       </c>
       <c r="AT14">
-        <v>407.478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
+        <v>407.47800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -23317,7 +23372,7 @@
         <v>1919</v>
       </c>
       <c r="AL15">
-        <v>140.611</v>
+        <v>140.61099999999999</v>
       </c>
       <c r="AM15" t="s">
         <v>1972</v>
@@ -23341,10 +23396,10 @@
         <v>4970</v>
       </c>
       <c r="AT15">
-        <v>399.095</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
+        <v>399.09500000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -23403,7 +23458,7 @@
         <v>1920</v>
       </c>
       <c r="AL16">
-        <v>210.901</v>
+        <v>210.90100000000001</v>
       </c>
       <c r="AM16" t="s">
         <v>1975</v>
@@ -23430,7 +23485,7 @@
         <v>389.541</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -23513,10 +23568,10 @@
         <v>4972</v>
       </c>
       <c r="AT17">
-        <v>387.891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46">
+        <v>387.89100000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -23599,10 +23654,10 @@
         <v>4973</v>
       </c>
       <c r="AT18">
-        <v>472.713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46">
+        <v>472.71300000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -23661,7 +23716,7 @@
         <v>1923</v>
       </c>
       <c r="AL19">
-        <v>151.324</v>
+        <v>151.32400000000001</v>
       </c>
       <c r="AM19" t="s">
         <v>1984</v>
@@ -23688,7 +23743,7 @@
         <v>437.875</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -23747,7 +23802,7 @@
         <v>1924</v>
       </c>
       <c r="AL20">
-        <v>51.03100000000001</v>
+        <v>51.031000000000013</v>
       </c>
       <c r="AM20" t="s">
         <v>1987</v>
@@ -23774,7 +23829,7 @@
         <v>477.25</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -23833,7 +23888,7 @@
         <v>1925</v>
       </c>
       <c r="AL21">
-        <v>438.612</v>
+        <v>438.61200000000002</v>
       </c>
       <c r="AM21" t="s">
         <v>1990</v>
@@ -23857,10 +23912,10 @@
         <v>4976</v>
       </c>
       <c r="AT21">
-        <v>421.063</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46">
+        <v>421.06299999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -23919,7 +23974,7 @@
         <v>1926</v>
       </c>
       <c r="AL22">
-        <v>508.902</v>
+        <v>508.90199999999999</v>
       </c>
       <c r="AM22" t="s">
         <v>1993</v>
@@ -23943,10 +23998,10 @@
         <v>4977</v>
       </c>
       <c r="AT22">
-        <v>414.155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46">
+        <v>414.15499999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -24005,7 +24060,7 @@
         <v>1927</v>
       </c>
       <c r="AL23">
-        <v>148.931</v>
+        <v>148.93100000000001</v>
       </c>
       <c r="AM23" t="s">
         <v>1996</v>
@@ -24029,10 +24084,10 @@
         <v>4978</v>
       </c>
       <c r="AT23">
-        <v>458.181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46">
+        <v>458.18099999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -24115,10 +24170,10 @@
         <v>4979</v>
       </c>
       <c r="AT24">
-        <v>479.362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46">
+        <v>479.36200000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -24201,10 +24256,10 @@
         <v>4980</v>
       </c>
       <c r="AT25">
-        <v>482.309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:46">
+        <v>482.30900000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -24287,10 +24342,10 @@
         <v>4981</v>
       </c>
       <c r="AT26">
-        <v>493.288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46">
+        <v>493.28800000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -24373,10 +24428,10 @@
         <v>4982</v>
       </c>
       <c r="AT27">
-        <v>458.181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46">
+        <v>458.18099999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -24435,7 +24490,7 @@
         <v>1932</v>
       </c>
       <c r="AL28">
-        <v>231.272</v>
+        <v>231.27199999999999</v>
       </c>
       <c r="AM28" t="s">
         <v>2011</v>
@@ -24459,10 +24514,10 @@
         <v>4983</v>
       </c>
       <c r="AT28">
-        <v>440.037</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46">
+        <v>440.03699999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -24539,10 +24594,10 @@
         <v>4984</v>
       </c>
       <c r="AT29">
-        <v>458.181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:46">
+        <v>458.18099999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -24619,10 +24674,10 @@
         <v>4985</v>
       </c>
       <c r="AT30">
-        <v>386.187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46">
+        <v>386.18700000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -24699,10 +24754,10 @@
         <v>4986</v>
       </c>
       <c r="AT31">
-        <v>386.187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46">
+        <v>386.18700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -24779,10 +24834,10 @@
         <v>4987</v>
       </c>
       <c r="AT32">
-        <v>381.734</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46">
+        <v>381.73399999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -24859,10 +24914,10 @@
         <v>4988</v>
       </c>
       <c r="AT33">
-        <v>359.282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46">
+        <v>359.28199999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -24939,10 +24994,10 @@
         <v>4989</v>
       </c>
       <c r="AT34">
-        <v>386.187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46">
+        <v>386.18700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -25019,10 +25074,10 @@
         <v>4990</v>
       </c>
       <c r="AT35">
-        <v>374.836</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46">
+        <v>374.83600000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -25102,7 +25157,7 @@
         <v>340.601</v>
       </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -25179,10 +25234,10 @@
         <v>4992</v>
       </c>
       <c r="AT37">
-        <v>411.949</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46">
+        <v>411.94900000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -25259,10 +25314,10 @@
         <v>4993</v>
       </c>
       <c r="AT38">
-        <v>386.187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46">
+        <v>386.18700000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -25342,7 +25397,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -25422,7 +25477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -25502,7 +25557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -25579,10 +25634,10 @@
         <v>4997</v>
       </c>
       <c r="AT42">
-        <v>19.659</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46">
+        <v>19.658999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -25662,7 +25717,7 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -25742,7 +25797,7 @@
         <v>30.503</v>
       </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -25822,7 +25877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -25899,10 +25954,10 @@
         <v>5001</v>
       </c>
       <c r="AT46">
-        <v>84.89399999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46">
+        <v>84.893999999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -25979,10 +26034,10 @@
         <v>5002</v>
       </c>
       <c r="AT47">
-        <v>50.056</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46">
+        <v>50.055999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -26059,10 +26114,10 @@
         <v>5003</v>
       </c>
       <c r="AT48">
-        <v>89.431</v>
-      </c>
-    </row>
-    <row r="49" spans="1:46">
+        <v>89.430999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -26139,10 +26194,10 @@
         <v>5004</v>
       </c>
       <c r="AT49">
-        <v>42.778</v>
-      </c>
-    </row>
-    <row r="50" spans="1:46">
+        <v>42.777999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -26219,10 +26274,10 @@
         <v>5005</v>
       </c>
       <c r="AT50">
-        <v>26.336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:46">
+        <v>26.335999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -26299,10 +26354,10 @@
         <v>5006</v>
       </c>
       <c r="AT51">
-        <v>70.36199999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:46">
+        <v>70.361999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -26379,10 +26434,10 @@
         <v>5007</v>
       </c>
       <c r="AT52">
-        <v>91.54299999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:46">
+        <v>91.542999999999992</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -26459,10 +26514,10 @@
         <v>5008</v>
       </c>
       <c r="AT53">
-        <v>94.48999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:46">
+        <v>94.49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -26539,10 +26594,10 @@
         <v>5009</v>
       </c>
       <c r="AT54">
-        <v>105.469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:46">
+        <v>105.46899999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -26619,10 +26674,10 @@
         <v>5010</v>
       </c>
       <c r="AT55">
-        <v>70.36199999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:46">
+        <v>70.361999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -26699,10 +26754,10 @@
         <v>5011</v>
       </c>
       <c r="AT56">
-        <v>52.218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:46">
+        <v>52.218000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -26779,10 +26834,10 @@
         <v>5012</v>
       </c>
       <c r="AT57">
-        <v>70.36199999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:46">
+        <v>70.361999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -26862,7 +26917,7 @@
         <v>456.02</v>
       </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -26942,7 +26997,7 @@
         <v>456.02</v>
       </c>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -27019,10 +27074,10 @@
         <v>5015</v>
       </c>
       <c r="AT60">
-        <v>451.567</v>
-      </c>
-    </row>
-    <row r="61" spans="1:46">
+        <v>451.56700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -27099,10 +27154,10 @@
         <v>5016</v>
       </c>
       <c r="AT61">
-        <v>429.115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:46">
+        <v>429.11500000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -27182,7 +27237,7 @@
         <v>456.02</v>
       </c>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -27259,10 +27314,10 @@
         <v>5018</v>
       </c>
       <c r="AT63">
-        <v>444.669</v>
-      </c>
-    </row>
-    <row r="64" spans="1:46">
+        <v>444.66899999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -27339,10 +27394,10 @@
         <v>5019</v>
       </c>
       <c r="AT64">
-        <v>410.434</v>
-      </c>
-    </row>
-    <row r="65" spans="1:46">
+        <v>410.43400000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -27419,10 +27474,10 @@
         <v>5020</v>
       </c>
       <c r="AT65">
-        <v>481.782</v>
-      </c>
-    </row>
-    <row r="66" spans="1:46">
+        <v>481.78199999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -27502,7 +27557,7 @@
         <v>456.02</v>
       </c>
     </row>
-    <row r="67" spans="1:46">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -27579,10 +27634,10 @@
         <v>5022</v>
       </c>
       <c r="AT67">
-        <v>454.833</v>
-      </c>
-    </row>
-    <row r="68" spans="1:46">
+        <v>454.83300000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -27659,10 +27714,10 @@
         <v>5023</v>
       </c>
       <c r="AT68">
-        <v>69.905</v>
-      </c>
-    </row>
-    <row r="69" spans="1:46">
+        <v>69.905000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -27739,10 +27794,10 @@
         <v>5024</v>
       </c>
       <c r="AT69">
-        <v>69.905</v>
-      </c>
-    </row>
-    <row r="70" spans="1:46">
+        <v>69.905000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -27822,7 +27877,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="71" spans="1:46">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -27902,7 +27957,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="72" spans="1:46">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -27979,10 +28034,10 @@
         <v>5027</v>
       </c>
       <c r="AT72">
-        <v>85.26600000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:46">
+        <v>85.266000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -28059,10 +28114,10 @@
         <v>5028</v>
       </c>
       <c r="AT73">
-        <v>69.905</v>
-      </c>
-    </row>
-    <row r="74" spans="1:46">
+        <v>69.905000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -28139,10 +28194,10 @@
         <v>5029</v>
       </c>
       <c r="AT74">
-        <v>20.703</v>
-      </c>
-    </row>
-    <row r="75" spans="1:46">
+        <v>20.702999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -28219,10 +28274,10 @@
         <v>5030</v>
       </c>
       <c r="AT75">
-        <v>23.478</v>
-      </c>
-    </row>
-    <row r="76" spans="1:46">
+        <v>23.478000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -28299,10 +28354,10 @@
         <v>5031</v>
       </c>
       <c r="AT76">
-        <v>19.194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:46">
+        <v>19.193999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -28379,10 +28434,10 @@
         <v>5032</v>
       </c>
       <c r="AT77">
-        <v>53.328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:46">
+        <v>53.328000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -28459,10 +28514,10 @@
         <v>5033</v>
       </c>
       <c r="AT78">
-        <v>51.374</v>
-      </c>
-    </row>
-    <row r="79" spans="1:46">
+        <v>51.374000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -28542,7 +28597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:46">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -28622,7 +28677,7 @@
         <v>23.262</v>
       </c>
     </row>
-    <row r="81" spans="1:46">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -28702,7 +28757,7 @@
         <v>24.253</v>
       </c>
     </row>
-    <row r="82" spans="1:46">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -28779,10 +28834,10 @@
         <v>5037</v>
       </c>
       <c r="AT82">
-        <v>37.188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:46">
+        <v>37.188000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -28862,7 +28917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:46">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -28939,10 +28994,10 @@
         <v>5039</v>
       </c>
       <c r="AT84">
-        <v>17.691</v>
-      </c>
-    </row>
-    <row r="85" spans="1:46">
+        <v>17.690999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -29022,7 +29077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:46">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -29096,7 +29151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:46">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -29170,7 +29225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:46">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -29244,7 +29299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:46">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -29318,7 +29373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:46">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -29392,7 +29447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:46">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -29466,7 +29521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:46">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -29540,7 +29595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:46">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -29614,7 +29669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:46">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -29688,7 +29743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:46">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -29762,7 +29817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:46">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -29836,7 +29891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:44">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -29910,7 +29965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:44">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -29984,7 +30039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:44">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -30058,7 +30113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:44">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -30132,7 +30187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:44">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -30206,7 +30261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:44">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -30280,7 +30335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:44">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -30354,7 +30409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:44">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>125</v>
       </c>
@@ -30428,7 +30483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:44">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -30502,7 +30557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:44">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -30576,7 +30631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:44">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -30650,7 +30705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:44">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>129</v>
       </c>
@@ -30724,7 +30779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:44">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -30798,7 +30853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:44">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>131</v>
       </c>
@@ -30854,7 +30909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:44">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -30910,7 +30965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:44">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>133</v>
       </c>
@@ -30966,7 +31021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:44">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -31022,7 +31077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:44">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>135</v>
       </c>
@@ -31078,7 +31133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:44">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -31134,7 +31189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:44">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>137</v>
       </c>
@@ -31190,7 +31245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:44">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -31246,7 +31301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:44">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>139</v>
       </c>
@@ -31302,7 +31357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:44">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>140</v>
       </c>
@@ -31358,7 +31413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:44">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>141</v>
       </c>
@@ -31414,7 +31469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:44">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -31470,7 +31525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:44">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>143</v>
       </c>
@@ -31526,7 +31581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:44">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>144</v>
       </c>
@@ -31582,7 +31637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:44">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>145</v>
       </c>
@@ -31638,7 +31693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:44">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>146</v>
       </c>
@@ -31694,7 +31749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:44">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>147</v>
       </c>
@@ -31750,7 +31805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:44">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -31806,7 +31861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:44">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>149</v>
       </c>
@@ -31862,7 +31917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:44">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>150</v>
       </c>
@@ -31918,7 +31973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:44">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>151</v>
       </c>
@@ -31974,7 +32029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:44">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -32030,7 +32085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:44">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>153</v>
       </c>
@@ -32086,7 +32141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:44">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -32142,7 +32197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:44">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>155</v>
       </c>
@@ -32198,7 +32253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:44">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>156</v>
       </c>
@@ -32254,7 +32309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:44">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>157</v>
       </c>
@@ -32310,7 +32365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:44">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>158</v>
       </c>
@@ -32366,7 +32421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:44">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>159</v>
       </c>
@@ -32422,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:44">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>160</v>
       </c>
@@ -32478,7 +32533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:44">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -32534,7 +32589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:44">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>162</v>
       </c>
@@ -32590,7 +32645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:44">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>163</v>
       </c>
@@ -32646,7 +32701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:44">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>164</v>
       </c>
@@ -32702,7 +32757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:44">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>165</v>
       </c>
@@ -32758,7 +32813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:44">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>166</v>
       </c>
@@ -32814,7 +32869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:44">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -32870,7 +32925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:44">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>168</v>
       </c>
@@ -32926,7 +32981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:44">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>169</v>
       </c>
@@ -32982,7 +33037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:44">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>170</v>
       </c>
@@ -33038,7 +33093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:44">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -33094,7 +33149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:44">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>172</v>
       </c>
@@ -33150,7 +33205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:44">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>173</v>
       </c>
@@ -33206,7 +33261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:44">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>174</v>
       </c>
@@ -33262,7 +33317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:44">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>175</v>
       </c>
@@ -33318,7 +33373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:44">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>176</v>
       </c>
@@ -33374,7 +33429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:44">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -33430,7 +33485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:44">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>178</v>
       </c>
@@ -33486,7 +33541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:44">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>179</v>
       </c>
@@ -33542,7 +33597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:44">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -33598,7 +33653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:44">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>181</v>
       </c>
@@ -33654,7 +33709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:44">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>182</v>
       </c>
@@ -33710,7 +33765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:44">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>183</v>
       </c>
@@ -33766,7 +33821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:44">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -33822,7 +33877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:44">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>185</v>
       </c>
@@ -33878,7 +33933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:44">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>186</v>
       </c>
@@ -33934,7 +33989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:44">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -33990,7 +34045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:44">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>188</v>
       </c>
@@ -34046,7 +34101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:44">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>189</v>
       </c>
@@ -34102,7 +34157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:44">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>190</v>
       </c>
@@ -34158,7 +34213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:44">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>191</v>
       </c>
@@ -34214,7 +34269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:44">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>192</v>
       </c>
@@ -34270,7 +34325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:44">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>193</v>
       </c>
@@ -34326,7 +34381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:44">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>194</v>
       </c>
@@ -34382,7 +34437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:44">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>195</v>
       </c>
@@ -34438,7 +34493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:44">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>196</v>
       </c>
@@ -34494,7 +34549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:44">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>197</v>
       </c>
@@ -34550,7 +34605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:44">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>198</v>
       </c>
@@ -34606,7 +34661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:44">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -34662,7 +34717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:44">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>200</v>
       </c>
@@ -34718,7 +34773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:44">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>201</v>
       </c>
@@ -34774,7 +34829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:44">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>202</v>
       </c>
@@ -34830,7 +34885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:44">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>203</v>
       </c>
@@ -34886,7 +34941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:44">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>204</v>
       </c>
@@ -34942,7 +34997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:44">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>205</v>
       </c>
@@ -34998,7 +35053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:44">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>206</v>
       </c>
@@ -35054,7 +35109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:44">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>207</v>
       </c>
@@ -35110,7 +35165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:44">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>208</v>
       </c>
@@ -35166,7 +35221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:44">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>209</v>
       </c>
@@ -35222,7 +35277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:44">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>210</v>
       </c>
@@ -35278,7 +35333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:44">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>211</v>
       </c>
@@ -35334,7 +35389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:44">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>212</v>
       </c>
@@ -35390,7 +35445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:44">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>213</v>
       </c>
@@ -35446,7 +35501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:44">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>214</v>
       </c>
@@ -35502,7 +35557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:44">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -35558,7 +35613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:44">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>216</v>
       </c>
@@ -35614,7 +35669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:44">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -35670,7 +35725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:44">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>218</v>
       </c>
@@ -35726,7 +35781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:44">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -35782,7 +35837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:44">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -35838,7 +35893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:44">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -35894,7 +35949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:44">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -35950,7 +36005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:44">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -36006,7 +36061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:44">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -36062,7 +36117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:44">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -36118,7 +36173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:44">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -36174,7 +36229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:44">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -36230,7 +36285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:44">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -36286,7 +36341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:44">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -36342,7 +36397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:44">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -36398,7 +36453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:44">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -36454,7 +36509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:44">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -36510,7 +36565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:44">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -36566,7 +36621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:44">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -36622,7 +36677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:44">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>235</v>
       </c>
@@ -36678,7 +36733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:44">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -36734,7 +36789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:44">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>237</v>
       </c>
@@ -36790,7 +36845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:44">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -36846,7 +36901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:44">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -36902,7 +36957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:44">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -36958,7 +37013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:44">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>241</v>
       </c>
@@ -37014,7 +37069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:44">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -37070,7 +37125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:44">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -37126,7 +37181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:44">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -37182,7 +37237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:44">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -37238,7 +37293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:44">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -37294,7 +37349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:44">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -37350,7 +37405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:44">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -37406,7 +37461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:44">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -37462,7 +37517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:44">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -37518,7 +37573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:44">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -37574,7 +37629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:44">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -37630,7 +37685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:44">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -37686,7 +37741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:44">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -37742,7 +37797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:44">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -37798,7 +37853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:44">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -37854,7 +37909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:44">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -37910,7 +37965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:44">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -37966,7 +38021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:44">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -38022,7 +38077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:44">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -38078,7 +38133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:44">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -38134,7 +38189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:44">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -38190,7 +38245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:44">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -38246,7 +38301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:44">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -38302,7 +38357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:44">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -38358,7 +38413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:44">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -38414,7 +38469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:44">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -38470,7 +38525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:44">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -38526,7 +38581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:44">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -38582,7 +38637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:44">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -38638,7 +38693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:44">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>271</v>
       </c>
@@ -38694,7 +38749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:44">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -38750,7 +38805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:44">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -38806,7 +38861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:44">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -38862,7 +38917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:44">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>275</v>
       </c>
@@ -38918,7 +38973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:44">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -38974,7 +39029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:44">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>277</v>
       </c>
@@ -39030,7 +39085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:44">
+    <row r="257" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -39086,7 +39141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:44">
+    <row r="258" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -39142,7 +39197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:44">
+    <row r="259" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>280</v>
       </c>
@@ -39198,7 +39253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:44">
+    <row r="260" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -39254,7 +39309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:44">
+    <row r="261" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>282</v>
       </c>
@@ -39310,7 +39365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:44">
+    <row r="262" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -39366,7 +39421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:44">
+    <row r="263" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -39422,7 +39477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:44">
+    <row r="264" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -39478,7 +39533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:44">
+    <row r="265" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -39534,7 +39589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:44">
+    <row r="266" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -39590,7 +39645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:44">
+    <row r="267" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -39646,7 +39701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:44">
+    <row r="268" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -39702,7 +39757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:44">
+    <row r="269" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -39758,7 +39813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:44">
+    <row r="270" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -39814,7 +39869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:44">
+    <row r="271" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -39870,7 +39925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:44">
+    <row r="272" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -39926,7 +39981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:44">
+    <row r="273" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>294</v>
       </c>
@@ -39982,7 +40037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:44">
+    <row r="274" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>295</v>
       </c>
@@ -40038,7 +40093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:44">
+    <row r="275" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>296</v>
       </c>
@@ -40094,7 +40149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:44">
+    <row r="276" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>297</v>
       </c>
@@ -40150,7 +40205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:44">
+    <row r="277" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>298</v>
       </c>
@@ -40206,7 +40261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:44">
+    <row r="278" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>299</v>
       </c>
@@ -40262,7 +40317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:44">
+    <row r="279" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>300</v>
       </c>
@@ -40318,7 +40373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:44">
+    <row r="280" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>301</v>
       </c>
@@ -40374,7 +40429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:44">
+    <row r="281" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>302</v>
       </c>
@@ -40430,7 +40485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:44">
+    <row r="282" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>303</v>
       </c>
@@ -40486,7 +40541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:44">
+    <row r="283" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>304</v>
       </c>
@@ -40542,7 +40597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:44">
+    <row r="284" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>305</v>
       </c>
@@ -40598,7 +40653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:44">
+    <row r="285" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>306</v>
       </c>
@@ -40654,7 +40709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:44">
+    <row r="286" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>307</v>
       </c>
@@ -40710,7 +40765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:44">
+    <row r="287" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>308</v>
       </c>
@@ -40766,7 +40821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:44">
+    <row r="288" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>309</v>
       </c>
@@ -40822,7 +40877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:44">
+    <row r="289" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>310</v>
       </c>
@@ -40878,7 +40933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:44">
+    <row r="290" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>311</v>
       </c>
@@ -40934,7 +40989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:44">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>312</v>
       </c>
@@ -40990,7 +41045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:44">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>313</v>
       </c>
@@ -41046,7 +41101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:44">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>314</v>
       </c>
@@ -41102,7 +41157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:44">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>315</v>
       </c>
@@ -41158,7 +41213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:44">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>316</v>
       </c>
@@ -41214,7 +41269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:44">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>317</v>
       </c>
@@ -41270,7 +41325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:44">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>318</v>
       </c>
@@ -41326,7 +41381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:44">
+    <row r="298" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>319</v>
       </c>
@@ -41382,7 +41437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:44">
+    <row r="299" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>320</v>
       </c>
@@ -41438,7 +41493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:44">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>321</v>
       </c>
@@ -41494,7 +41549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:44">
+    <row r="301" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>322</v>
       </c>
@@ -41550,7 +41605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:44">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>323</v>
       </c>
@@ -41606,7 +41661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:44">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>324</v>
       </c>
@@ -41662,7 +41717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:44">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>325</v>
       </c>
@@ -41718,7 +41773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:44">
+    <row r="305" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>326</v>
       </c>
@@ -41774,7 +41829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:44">
+    <row r="306" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>327</v>
       </c>
@@ -41830,7 +41885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:44">
+    <row r="307" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>328</v>
       </c>
@@ -41886,7 +41941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:44">
+    <row r="308" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>329</v>
       </c>
@@ -41942,7 +41997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:44">
+    <row r="309" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>330</v>
       </c>
@@ -41998,7 +42053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:44">
+    <row r="310" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>331</v>
       </c>
@@ -42054,7 +42109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:44">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>332</v>
       </c>
@@ -42110,7 +42165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:44">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>333</v>
       </c>
@@ -42166,7 +42221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:44">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>334</v>
       </c>
@@ -42222,7 +42277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:44">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>335</v>
       </c>
@@ -42278,7 +42333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:44">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>336</v>
       </c>
@@ -42334,7 +42389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:44">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>337</v>
       </c>
@@ -42390,7 +42445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:44">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>338</v>
       </c>
@@ -42446,7 +42501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:44">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>339</v>
       </c>
@@ -42502,7 +42557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:44">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>340</v>
       </c>
@@ -42558,7 +42613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:44">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>341</v>
       </c>
@@ -42614,7 +42669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:44">
+    <row r="321" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>342</v>
       </c>
@@ -42670,7 +42725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:44">
+    <row r="322" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>343</v>
       </c>
@@ -42726,7 +42781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:44">
+    <row r="323" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>344</v>
       </c>
@@ -42782,7 +42837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:44">
+    <row r="324" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>345</v>
       </c>
@@ -42838,7 +42893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:44">
+    <row r="325" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>346</v>
       </c>
@@ -42894,7 +42949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:44">
+    <row r="326" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>347</v>
       </c>
@@ -42932,7 +42987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:44">
+    <row r="327" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>348</v>
       </c>
@@ -42970,7 +43025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:44">
+    <row r="328" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>349</v>
       </c>
@@ -43008,7 +43063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:44">
+    <row r="329" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>350</v>
       </c>
@@ -43046,7 +43101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:44">
+    <row r="330" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>351</v>
       </c>
@@ -43084,7 +43139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:44">
+    <row r="331" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>352</v>
       </c>
@@ -43122,7 +43177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:44">
+    <row r="332" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>353</v>
       </c>
@@ -43160,7 +43215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:44">
+    <row r="333" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>354</v>
       </c>
@@ -43198,7 +43253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:44">
+    <row r="334" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>355</v>
       </c>
@@ -43236,7 +43291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:44">
+    <row r="335" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>356</v>
       </c>
@@ -43274,7 +43329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:44">
+    <row r="336" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>357</v>
       </c>
@@ -43312,7 +43367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:44">
+    <row r="337" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>358</v>
       </c>
@@ -43350,7 +43405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:44">
+    <row r="338" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>359</v>
       </c>
@@ -43388,7 +43443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:44">
+    <row r="339" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>360</v>
       </c>
@@ -43426,7 +43481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:44">
+    <row r="340" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>361</v>
       </c>
@@ -43464,7 +43519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:44">
+    <row r="341" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>362</v>
       </c>
@@ -43502,7 +43557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:44">
+    <row r="342" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>363</v>
       </c>
@@ -43540,7 +43595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:44">
+    <row r="343" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>364</v>
       </c>
@@ -43578,7 +43633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:44">
+    <row r="344" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>365</v>
       </c>
@@ -43616,7 +43671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:44">
+    <row r="345" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>366</v>
       </c>
@@ -43654,7 +43709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:44">
+    <row r="346" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>367</v>
       </c>
@@ -43692,7 +43747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:44">
+    <row r="347" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>368</v>
       </c>
@@ -43730,7 +43785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:44">
+    <row r="348" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>369</v>
       </c>
@@ -43768,7 +43823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:44">
+    <row r="349" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>370</v>
       </c>
@@ -43806,7 +43861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:44">
+    <row r="350" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>371</v>
       </c>
@@ -43844,7 +43899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:44">
+    <row r="351" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>372</v>
       </c>
@@ -43882,7 +43937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:44">
+    <row r="352" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>373</v>
       </c>
@@ -43920,7 +43975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:44">
+    <row r="353" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>374</v>
       </c>
@@ -43958,7 +44013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:44">
+    <row r="354" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>375</v>
       </c>
@@ -43996,7 +44051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:44">
+    <row r="355" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>376</v>
       </c>
@@ -44034,7 +44089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:44">
+    <row r="356" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>377</v>
       </c>
@@ -44072,7 +44127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:44">
+    <row r="357" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>378</v>
       </c>
@@ -44110,7 +44165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:44">
+    <row r="358" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>379</v>
       </c>
@@ -44148,7 +44203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:44">
+    <row r="359" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>380</v>
       </c>
@@ -44186,7 +44241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:44">
+    <row r="360" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>381</v>
       </c>
@@ -44224,7 +44279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:44">
+    <row r="361" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>382</v>
       </c>
@@ -44262,7 +44317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:44">
+    <row r="362" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>383</v>
       </c>
@@ -44300,7 +44355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:44">
+    <row r="363" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>384</v>
       </c>
@@ -44338,7 +44393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:44">
+    <row r="364" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>385</v>
       </c>
@@ -44376,7 +44431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:44">
+    <row r="365" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>386</v>
       </c>
@@ -44414,7 +44469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:44">
+    <row r="366" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>387</v>
       </c>
@@ -44452,7 +44507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:44">
+    <row r="367" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>388</v>
       </c>
@@ -44490,7 +44545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:44">
+    <row r="368" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>389</v>
       </c>
@@ -44528,7 +44583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:44">
+    <row r="369" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>390</v>
       </c>
@@ -44566,7 +44621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:44">
+    <row r="370" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>391</v>
       </c>
@@ -44604,7 +44659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:44">
+    <row r="371" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>392</v>
       </c>
@@ -44642,7 +44697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:44">
+    <row r="372" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>393</v>
       </c>
@@ -44680,7 +44735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:44">
+    <row r="373" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>394</v>
       </c>
@@ -44718,7 +44773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:44">
+    <row r="374" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>395</v>
       </c>
@@ -44756,7 +44811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:44">
+    <row r="375" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>396</v>
       </c>
@@ -44794,7 +44849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:44">
+    <row r="376" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>397</v>
       </c>
@@ -44832,7 +44887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:44">
+    <row r="377" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>398</v>
       </c>
@@ -44870,7 +44925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:44">
+    <row r="378" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>399</v>
       </c>
@@ -44908,7 +44963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:44">
+    <row r="379" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>400</v>
       </c>
@@ -44946,7 +45001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:44">
+    <row r="380" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>401</v>
       </c>
@@ -44984,7 +45039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:44">
+    <row r="381" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>402</v>
       </c>
@@ -45022,7 +45077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:44">
+    <row r="382" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>403</v>
       </c>
@@ -45060,7 +45115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:44">
+    <row r="383" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>404</v>
       </c>
@@ -45098,7 +45153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:44">
+    <row r="384" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>405</v>
       </c>
@@ -45136,7 +45191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:44">
+    <row r="385" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>406</v>
       </c>
@@ -45174,7 +45229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:44">
+    <row r="386" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>407</v>
       </c>
@@ -45212,7 +45267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:44">
+    <row r="387" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>408</v>
       </c>
@@ -45250,7 +45305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:44">
+    <row r="388" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>409</v>
       </c>
@@ -45288,7 +45343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:44">
+    <row r="389" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>410</v>
       </c>
@@ -45326,7 +45381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:44">
+    <row r="390" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>411</v>
       </c>
@@ -45364,7 +45419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:44">
+    <row r="391" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>412</v>
       </c>
@@ -45402,7 +45457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:44">
+    <row r="392" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>413</v>
       </c>
@@ -45440,7 +45495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:44">
+    <row r="393" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>414</v>
       </c>
@@ -45478,7 +45533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:44">
+    <row r="394" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>415</v>
       </c>
@@ -45516,7 +45571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:44">
+    <row r="395" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>416</v>
       </c>
@@ -45554,7 +45609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:44">
+    <row r="396" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>417</v>
       </c>
@@ -45592,7 +45647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:44">
+    <row r="397" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>418</v>
       </c>
@@ -45630,7 +45685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:44">
+    <row r="398" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>419</v>
       </c>
@@ -45668,7 +45723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:44">
+    <row r="399" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>420</v>
       </c>
@@ -45706,7 +45761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:44">
+    <row r="400" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>421</v>
       </c>
@@ -45744,7 +45799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:44">
+    <row r="401" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>422</v>
       </c>
@@ -45782,7 +45837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:44">
+    <row r="402" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>423</v>
       </c>
@@ -45820,7 +45875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:44">
+    <row r="403" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>424</v>
       </c>
@@ -45858,7 +45913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:44">
+    <row r="404" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>425</v>
       </c>
@@ -45896,7 +45951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:44">
+    <row r="405" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>426</v>
       </c>
@@ -45934,7 +45989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:44">
+    <row r="406" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>427</v>
       </c>
@@ -45972,7 +46027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:44">
+    <row r="407" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>428</v>
       </c>
@@ -46010,7 +46065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:44">
+    <row r="408" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>429</v>
       </c>
@@ -46048,7 +46103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:44">
+    <row r="409" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>430</v>
       </c>
@@ -46086,7 +46141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:44">
+    <row r="410" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>431</v>
       </c>
@@ -46124,7 +46179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:44">
+    <row r="411" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>432</v>
       </c>
@@ -46162,7 +46217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:44">
+    <row r="412" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>433</v>
       </c>
@@ -46200,7 +46255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:44">
+    <row r="413" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>434</v>
       </c>
@@ -46238,7 +46293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:44">
+    <row r="414" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>435</v>
       </c>
@@ -46276,7 +46331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:44">
+    <row r="415" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>436</v>
       </c>
@@ -46314,7 +46369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:44">
+    <row r="416" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>437</v>
       </c>
@@ -46352,7 +46407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:44">
+    <row r="417" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>438</v>
       </c>
@@ -46390,7 +46445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:44">
+    <row r="418" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>439</v>
       </c>
@@ -46428,7 +46483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:44">
+    <row r="419" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>440</v>
       </c>
@@ -46466,7 +46521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:44">
+    <row r="420" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>441</v>
       </c>
@@ -46504,7 +46559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:44">
+    <row r="421" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>442</v>
       </c>
@@ -46542,7 +46597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:44">
+    <row r="422" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>443</v>
       </c>
@@ -46580,7 +46635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:44">
+    <row r="423" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>444</v>
       </c>
@@ -46618,7 +46673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:44">
+    <row r="424" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>445</v>
       </c>
@@ -46656,7 +46711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:44">
+    <row r="425" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>446</v>
       </c>
@@ -46694,7 +46749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:44">
+    <row r="426" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>447</v>
       </c>
@@ -46732,7 +46787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:44">
+    <row r="427" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>448</v>
       </c>
@@ -46770,7 +46825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:44">
+    <row r="428" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>449</v>
       </c>
@@ -46808,7 +46863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:44">
+    <row r="429" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>450</v>
       </c>
@@ -46846,7 +46901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:44">
+    <row r="430" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>451</v>
       </c>
@@ -46884,7 +46939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:44">
+    <row r="431" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>452</v>
       </c>
@@ -46922,7 +46977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:44">
+    <row r="432" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>453</v>
       </c>
@@ -46960,7 +47015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:44">
+    <row r="433" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>454</v>
       </c>
@@ -46998,7 +47053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:44">
+    <row r="434" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>455</v>
       </c>
@@ -47036,7 +47091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:44">
+    <row r="435" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>456</v>
       </c>
@@ -47074,7 +47129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:44">
+    <row r="436" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>457</v>
       </c>
@@ -47112,7 +47167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:44">
+    <row r="437" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>458</v>
       </c>
@@ -47150,7 +47205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:44">
+    <row r="438" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>459</v>
       </c>
@@ -47188,7 +47243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:44">
+    <row r="439" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>460</v>
       </c>
@@ -47226,7 +47281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:44">
+    <row r="440" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>461</v>
       </c>
@@ -47264,7 +47319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:44">
+    <row r="441" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>462</v>
       </c>
@@ -47302,7 +47357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:44">
+    <row r="442" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>463</v>
       </c>
@@ -47340,7 +47395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:44">
+    <row r="443" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>464</v>
       </c>
@@ -47378,7 +47433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:44">
+    <row r="444" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>465</v>
       </c>
@@ -47416,7 +47471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:44">
+    <row r="445" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>466</v>
       </c>
@@ -47454,7 +47509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:44">
+    <row r="446" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>467</v>
       </c>
@@ -47492,7 +47547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:44">
+    <row r="447" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>468</v>
       </c>
@@ -47530,7 +47585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:44">
+    <row r="448" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>469</v>
       </c>
@@ -47568,7 +47623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:44">
+    <row r="449" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>470</v>
       </c>
@@ -47606,7 +47661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:44">
+    <row r="450" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>471</v>
       </c>
@@ -47644,7 +47699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:44">
+    <row r="451" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>472</v>
       </c>
@@ -47682,7 +47737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:44">
+    <row r="452" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>473</v>
       </c>
@@ -47720,7 +47775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:44">
+    <row r="453" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>474</v>
       </c>
@@ -47758,7 +47813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:44">
+    <row r="454" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>475</v>
       </c>
@@ -47796,7 +47851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:44">
+    <row r="455" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>476</v>
       </c>
@@ -47834,7 +47889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:44">
+    <row r="456" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>477</v>
       </c>
@@ -47872,7 +47927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:44">
+    <row r="457" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>478</v>
       </c>
@@ -47910,7 +47965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:44">
+    <row r="458" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>479</v>
       </c>
@@ -47948,7 +48003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:44">
+    <row r="459" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>480</v>
       </c>
@@ -47986,7 +48041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:44">
+    <row r="460" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>481</v>
       </c>
@@ -48024,7 +48079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:44">
+    <row r="461" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>482</v>
       </c>
@@ -48062,7 +48117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:44">
+    <row r="462" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>483</v>
       </c>
@@ -48100,7 +48155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:44">
+    <row r="463" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>484</v>
       </c>
@@ -48138,7 +48193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:44">
+    <row r="464" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>485</v>
       </c>
@@ -48176,7 +48231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:44">
+    <row r="465" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>486</v>
       </c>
@@ -48214,7 +48269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:44">
+    <row r="466" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>487</v>
       </c>
@@ -48252,7 +48307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:44">
+    <row r="467" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>488</v>
       </c>
@@ -48290,7 +48345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:44">
+    <row r="468" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>489</v>
       </c>
@@ -48328,7 +48383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:44">
+    <row r="469" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>490</v>
       </c>
@@ -48366,7 +48421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:44">
+    <row r="470" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>491</v>
       </c>
@@ -48404,7 +48459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:44">
+    <row r="471" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>492</v>
       </c>
@@ -48442,7 +48497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:44">
+    <row r="472" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>493</v>
       </c>
@@ -48480,7 +48535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:44">
+    <row r="473" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>494</v>
       </c>
@@ -48518,7 +48573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:44">
+    <row r="474" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>495</v>
       </c>
@@ -48556,7 +48611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:44">
+    <row r="475" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>496</v>
       </c>
@@ -48594,7 +48649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:44">
+    <row r="476" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>497</v>
       </c>
@@ -48632,7 +48687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:44">
+    <row r="477" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>498</v>
       </c>
@@ -48670,7 +48725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:44">
+    <row r="478" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>499</v>
       </c>
@@ -48708,7 +48763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:44">
+    <row r="479" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>500</v>
       </c>
@@ -48746,7 +48801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:44">
+    <row r="480" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>501</v>
       </c>
@@ -48784,7 +48839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:44">
+    <row r="481" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>502</v>
       </c>
@@ -48822,7 +48877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:44">
+    <row r="482" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>503</v>
       </c>
@@ -48860,7 +48915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:44">
+    <row r="483" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>504</v>
       </c>
@@ -48898,7 +48953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:44">
+    <row r="484" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>505</v>
       </c>
@@ -48936,7 +48991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:44">
+    <row r="485" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>506</v>
       </c>
@@ -48974,7 +49029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:44">
+    <row r="486" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>507</v>
       </c>
@@ -49012,7 +49067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:44">
+    <row r="487" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>508</v>
       </c>
@@ -49050,7 +49105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:44">
+    <row r="488" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>509</v>
       </c>
@@ -49088,7 +49143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:44">
+    <row r="489" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>510</v>
       </c>
@@ -49126,7 +49181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:44">
+    <row r="490" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>511</v>
       </c>
@@ -49164,7 +49219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:44">
+    <row r="491" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>512</v>
       </c>
@@ -49202,7 +49257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:44">
+    <row r="492" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>513</v>
       </c>
@@ -49240,7 +49295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:44">
+    <row r="493" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>514</v>
       </c>
@@ -49278,7 +49333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:44">
+    <row r="494" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>515</v>
       </c>
@@ -49316,7 +49371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:44">
+    <row r="495" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>516</v>
       </c>
@@ -49354,7 +49409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:44">
+    <row r="496" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>517</v>
       </c>
@@ -49392,7 +49447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:44">
+    <row r="497" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>518</v>
       </c>
@@ -49430,7 +49485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:44">
+    <row r="498" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>519</v>
       </c>
@@ -49468,7 +49523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:44">
+    <row r="499" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>520</v>
       </c>
@@ -49506,7 +49561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:44">
+    <row r="500" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>521</v>
       </c>
@@ -49544,7 +49599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:44">
+    <row r="501" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>522</v>
       </c>
@@ -49582,7 +49637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:44">
+    <row r="502" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>523</v>
       </c>
@@ -49620,7 +49675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:44">
+    <row r="503" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>524</v>
       </c>
@@ -49658,7 +49713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:44">
+    <row r="504" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>525</v>
       </c>
@@ -49696,7 +49751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:44">
+    <row r="505" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>526</v>
       </c>
@@ -49734,7 +49789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:44">
+    <row r="506" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C506" t="s">
         <v>6553</v>
       </c>
@@ -49766,7 +49821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:44">
+    <row r="507" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C507" t="s">
         <v>6554</v>
       </c>
@@ -49798,7 +49853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:44">
+    <row r="508" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C508" t="s">
         <v>6555</v>
       </c>
@@ -49830,7 +49885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:44">
+    <row r="509" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C509" t="s">
         <v>6556</v>
       </c>
@@ -49862,7 +49917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:44">
+    <row r="510" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C510" t="s">
         <v>6557</v>
       </c>
@@ -49894,7 +49949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:44">
+    <row r="511" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C511" t="s">
         <v>6558</v>
       </c>
@@ -49926,7 +49981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:44">
+    <row r="512" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C512" t="s">
         <v>6559</v>
       </c>
@@ -49958,7 +50013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:44">
+    <row r="513" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C513" t="s">
         <v>6560</v>
       </c>
@@ -49990,7 +50045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:44">
+    <row r="514" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C514" t="s">
         <v>6561</v>
       </c>
@@ -50022,7 +50077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:44">
+    <row r="515" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C515" t="s">
         <v>6562</v>
       </c>
@@ -50054,7 +50109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:44">
+    <row r="516" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C516" t="s">
         <v>6563</v>
       </c>
@@ -50086,7 +50141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:44">
+    <row r="517" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C517" t="s">
         <v>6564</v>
       </c>
@@ -50118,7 +50173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:44">
+    <row r="518" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C518" t="s">
         <v>6565</v>
       </c>
@@ -50150,7 +50205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:44">
+    <row r="519" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C519" t="s">
         <v>6566</v>
       </c>
@@ -50182,7 +50237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:44">
+    <row r="520" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C520" t="s">
         <v>6567</v>
       </c>
@@ -50214,7 +50269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:44">
+    <row r="521" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C521" t="s">
         <v>6568</v>
       </c>
@@ -50246,7 +50301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:44">
+    <row r="522" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C522" t="s">
         <v>6569</v>
       </c>
@@ -50278,7 +50333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:44">
+    <row r="523" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C523" t="s">
         <v>6570</v>
       </c>
@@ -50310,7 +50365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:44">
+    <row r="524" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C524" t="s">
         <v>6571</v>
       </c>
@@ -50342,7 +50397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:44">
+    <row r="525" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C525" t="s">
         <v>6572</v>
       </c>
@@ -50374,7 +50429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:44">
+    <row r="526" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C526" t="s">
         <v>6573</v>
       </c>
@@ -50406,7 +50461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:44">
+    <row r="527" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C527" t="s">
         <v>6574</v>
       </c>
@@ -50438,7 +50493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:44">
+    <row r="528" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C528" t="s">
         <v>6575</v>
       </c>
@@ -50470,7 +50525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:44">
+    <row r="529" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C529" t="s">
         <v>6576</v>
       </c>
@@ -50502,7 +50557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:44">
+    <row r="530" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C530" t="s">
         <v>6577</v>
       </c>
@@ -50534,7 +50589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:44">
+    <row r="531" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C531" t="s">
         <v>6578</v>
       </c>
@@ -50566,7 +50621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:44">
+    <row r="532" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C532" t="s">
         <v>6579</v>
       </c>
@@ -50598,7 +50653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:44">
+    <row r="533" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C533" t="s">
         <v>6580</v>
       </c>
@@ -50630,7 +50685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:44">
+    <row r="534" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C534" t="s">
         <v>6581</v>
       </c>
@@ -50662,7 +50717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:44">
+    <row r="535" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C535" t="s">
         <v>6582</v>
       </c>
@@ -50694,7 +50749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:44">
+    <row r="536" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C536" t="s">
         <v>6583</v>
       </c>
@@ -50726,7 +50781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:44">
+    <row r="537" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C537" t="s">
         <v>6584</v>
       </c>
@@ -50758,7 +50813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:44">
+    <row r="538" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C538" t="s">
         <v>6585</v>
       </c>
@@ -50790,7 +50845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:44">
+    <row r="539" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C539" t="s">
         <v>6586</v>
       </c>
@@ -50822,7 +50877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:44">
+    <row r="540" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C540" t="s">
         <v>6587</v>
       </c>
@@ -50854,7 +50909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:44">
+    <row r="541" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C541" t="s">
         <v>6588</v>
       </c>
@@ -50886,7 +50941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:44">
+    <row r="542" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C542" t="s">
         <v>6589</v>
       </c>
@@ -50918,7 +50973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:44">
+    <row r="543" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C543" t="s">
         <v>6590</v>
       </c>
@@ -50950,7 +51005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:44">
+    <row r="544" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C544" t="s">
         <v>6591</v>
       </c>
@@ -50982,7 +51037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:44">
+    <row r="545" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C545" t="s">
         <v>6592</v>
       </c>
@@ -51014,7 +51069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:44">
+    <row r="546" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C546" t="s">
         <v>6593</v>
       </c>
@@ -51046,7 +51101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:44">
+    <row r="547" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C547" t="s">
         <v>6594</v>
       </c>
@@ -51078,7 +51133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:44">
+    <row r="548" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C548" t="s">
         <v>6595</v>
       </c>
@@ -51110,7 +51165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:44">
+    <row r="549" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C549" t="s">
         <v>6596</v>
       </c>
@@ -51142,7 +51197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:44">
+    <row r="550" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C550" t="s">
         <v>6597</v>
       </c>
@@ -51174,7 +51229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="3:44">
+    <row r="551" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C551" t="s">
         <v>6598</v>
       </c>
@@ -51206,7 +51261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:44">
+    <row r="552" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C552" t="s">
         <v>6599</v>
       </c>
@@ -51238,7 +51293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:44">
+    <row r="553" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C553" t="s">
         <v>6600</v>
       </c>
@@ -51270,7 +51325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:44">
+    <row r="554" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C554" t="s">
         <v>6601</v>
       </c>
@@ -51302,7 +51357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:44">
+    <row r="555" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C555" t="s">
         <v>6602</v>
       </c>
@@ -51334,7 +51389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:44">
+    <row r="556" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C556" t="s">
         <v>6603</v>
       </c>
@@ -51366,7 +51421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:44">
+    <row r="557" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C557" t="s">
         <v>6604</v>
       </c>
@@ -51398,7 +51453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:44">
+    <row r="558" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C558" t="s">
         <v>6605</v>
       </c>
@@ -51430,7 +51485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:44">
+    <row r="559" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C559" t="s">
         <v>6606</v>
       </c>
@@ -51462,7 +51517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:44">
+    <row r="560" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C560" t="s">
         <v>6607</v>
       </c>
@@ -51494,7 +51549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="3:44">
+    <row r="561" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C561" t="s">
         <v>6608</v>
       </c>
@@ -51526,7 +51581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:44">
+    <row r="562" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C562" t="s">
         <v>6609</v>
       </c>
@@ -51558,7 +51613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="3:44">
+    <row r="563" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C563" t="s">
         <v>6610</v>
       </c>
@@ -51590,7 +51645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="3:44">
+    <row r="564" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C564" t="s">
         <v>6611</v>
       </c>
@@ -51622,7 +51677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:44">
+    <row r="565" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C565" t="s">
         <v>6612</v>
       </c>
@@ -51654,7 +51709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:44">
+    <row r="566" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C566" t="s">
         <v>6613</v>
       </c>
@@ -51686,7 +51741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:44">
+    <row r="567" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C567" t="s">
         <v>6614</v>
       </c>
@@ -51718,7 +51773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:44">
+    <row r="568" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C568" t="s">
         <v>6615</v>
       </c>
@@ -51750,7 +51805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:44">
+    <row r="569" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C569" t="s">
         <v>6616</v>
       </c>
@@ -51782,7 +51837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="3:44">
+    <row r="570" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C570" t="s">
         <v>6617</v>
       </c>
@@ -51814,7 +51869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:44">
+    <row r="571" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C571" t="s">
         <v>6618</v>
       </c>
@@ -51846,7 +51901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:44">
+    <row r="572" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C572" t="s">
         <v>6619</v>
       </c>
@@ -51878,7 +51933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:44">
+    <row r="573" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C573" t="s">
         <v>6620</v>
       </c>
@@ -51910,7 +51965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:44">
+    <row r="574" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C574" t="s">
         <v>6621</v>
       </c>
@@ -51942,7 +51997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:44">
+    <row r="575" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C575" t="s">
         <v>6622</v>
       </c>
@@ -51974,7 +52029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="3:44">
+    <row r="576" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C576" t="s">
         <v>6623</v>
       </c>
@@ -52006,7 +52061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:44">
+    <row r="577" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C577" t="s">
         <v>6624</v>
       </c>
@@ -52038,7 +52093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="3:44">
+    <row r="578" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C578" t="s">
         <v>6625</v>
       </c>
@@ -52070,7 +52125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:44">
+    <row r="579" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C579" t="s">
         <v>6626</v>
       </c>
@@ -52102,7 +52157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:44">
+    <row r="580" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C580" t="s">
         <v>6627</v>
       </c>
@@ -52134,7 +52189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:44">
+    <row r="581" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C581" t="s">
         <v>6628</v>
       </c>
@@ -52166,7 +52221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:44">
+    <row r="582" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C582" t="s">
         <v>6629</v>
       </c>
@@ -52198,7 +52253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:44">
+    <row r="583" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C583" t="s">
         <v>6630</v>
       </c>
@@ -52230,7 +52285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:44">
+    <row r="584" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C584" t="s">
         <v>6631</v>
       </c>
@@ -52262,7 +52317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:44">
+    <row r="585" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C585" t="s">
         <v>6632</v>
       </c>
@@ -52294,7 +52349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:44">
+    <row r="586" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C586" t="s">
         <v>6633</v>
       </c>
@@ -52326,7 +52381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:44">
+    <row r="587" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C587" t="s">
         <v>6634</v>
       </c>
@@ -52358,7 +52413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:44">
+    <row r="588" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C588" t="s">
         <v>6635</v>
       </c>
@@ -52390,7 +52445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:44">
+    <row r="589" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C589" t="s">
         <v>6636</v>
       </c>
@@ -52422,7 +52477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:44">
+    <row r="590" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C590" t="s">
         <v>6637</v>
       </c>
@@ -52454,7 +52509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:44">
+    <row r="591" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C591" t="s">
         <v>6638</v>
       </c>
@@ -52486,7 +52541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:44">
+    <row r="592" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C592" t="s">
         <v>6639</v>
       </c>
@@ -52518,7 +52573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:44">
+    <row r="593" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C593" t="s">
         <v>6640</v>
       </c>
@@ -52550,7 +52605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:44">
+    <row r="594" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C594" t="s">
         <v>6641</v>
       </c>
@@ -52582,7 +52637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:44">
+    <row r="595" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C595" t="s">
         <v>6642</v>
       </c>
@@ -52614,7 +52669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:44">
+    <row r="596" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C596" t="s">
         <v>6643</v>
       </c>
@@ -52646,7 +52701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:44">
+    <row r="597" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C597" t="s">
         <v>6644</v>
       </c>
@@ -52678,7 +52733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:44">
+    <row r="598" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C598" t="s">
         <v>6645</v>
       </c>
@@ -52710,7 +52765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:44">
+    <row r="599" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C599" t="s">
         <v>6646</v>
       </c>
@@ -52742,7 +52797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:44">
+    <row r="600" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C600" t="s">
         <v>6647</v>
       </c>
@@ -52774,7 +52829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:44">
+    <row r="601" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C601" t="s">
         <v>6648</v>
       </c>
@@ -52806,7 +52861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:44">
+    <row r="602" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C602" t="s">
         <v>6649</v>
       </c>
@@ -52838,7 +52893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:44">
+    <row r="603" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C603" t="s">
         <v>6650</v>
       </c>
@@ -52870,7 +52925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:44">
+    <row r="604" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C604" t="s">
         <v>6651</v>
       </c>
@@ -52902,7 +52957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:44">
+    <row r="605" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C605" t="s">
         <v>6652</v>
       </c>
@@ -52934,7 +52989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:44">
+    <row r="606" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C606" t="s">
         <v>6653</v>
       </c>
@@ -52966,7 +53021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:44">
+    <row r="607" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C607" t="s">
         <v>6654</v>
       </c>
@@ -52998,7 +53053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:44">
+    <row r="608" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C608" t="s">
         <v>6655</v>
       </c>
@@ -53030,7 +53085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:44">
+    <row r="609" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C609" t="s">
         <v>6656</v>
       </c>
@@ -53062,7 +53117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:44">
+    <row r="610" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C610" t="s">
         <v>6657</v>
       </c>
@@ -53094,7 +53149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:44">
+    <row r="611" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C611" t="s">
         <v>6658</v>
       </c>
@@ -53126,7 +53181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:44">
+    <row r="612" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C612" t="s">
         <v>6659</v>
       </c>
@@ -53158,7 +53213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:44">
+    <row r="613" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C613" t="s">
         <v>6660</v>
       </c>
@@ -53190,7 +53245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:44">
+    <row r="614" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C614" t="s">
         <v>6661</v>
       </c>
@@ -53222,7 +53277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:44">
+    <row r="615" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C615" t="s">
         <v>6662</v>
       </c>
@@ -53254,7 +53309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:44">
+    <row r="616" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C616" t="s">
         <v>6663</v>
       </c>
@@ -53286,7 +53341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:44">
+    <row r="617" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C617" t="s">
         <v>6664</v>
       </c>
@@ -53318,7 +53373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:44">
+    <row r="618" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C618" t="s">
         <v>6665</v>
       </c>
@@ -53350,7 +53405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:44">
+    <row r="619" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C619" t="s">
         <v>6666</v>
       </c>
@@ -53382,7 +53437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:44">
+    <row r="620" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C620" t="s">
         <v>6667</v>
       </c>
@@ -53414,7 +53469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:44">
+    <row r="621" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C621" t="s">
         <v>6668</v>
       </c>
@@ -53446,7 +53501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:44">
+    <row r="622" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C622" t="s">
         <v>6669</v>
       </c>
@@ -53478,7 +53533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:44">
+    <row r="623" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C623" t="s">
         <v>6670</v>
       </c>
@@ -53510,7 +53565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:44">
+    <row r="624" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C624" t="s">
         <v>6671</v>
       </c>
@@ -53542,7 +53597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:44">
+    <row r="625" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C625" t="s">
         <v>6672</v>
       </c>
@@ -53574,7 +53629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:44">
+    <row r="626" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C626" t="s">
         <v>6673</v>
       </c>
@@ -53606,7 +53661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:44">
+    <row r="627" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C627" t="s">
         <v>6674</v>
       </c>
@@ -53638,7 +53693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:44">
+    <row r="628" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C628" t="s">
         <v>6675</v>
       </c>
@@ -53670,7 +53725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:44">
+    <row r="629" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C629" t="s">
         <v>6676</v>
       </c>
@@ -53702,7 +53757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:44">
+    <row r="630" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C630" t="s">
         <v>6677</v>
       </c>
@@ -53734,7 +53789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:44">
+    <row r="631" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C631" t="s">
         <v>6678</v>
       </c>
@@ -53766,7 +53821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:44">
+    <row r="632" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C632" t="s">
         <v>6679</v>
       </c>
@@ -53798,7 +53853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:44">
+    <row r="633" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C633" t="s">
         <v>6680</v>
       </c>
@@ -53830,7 +53885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:44">
+    <row r="634" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C634" t="s">
         <v>6681</v>
       </c>
@@ -53862,7 +53917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="3:44">
+    <row r="635" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C635" t="s">
         <v>6682</v>
       </c>
@@ -53894,7 +53949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:44">
+    <row r="636" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C636" t="s">
         <v>6683</v>
       </c>
@@ -53926,7 +53981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:44">
+    <row r="637" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C637" t="s">
         <v>6684</v>
       </c>
@@ -53958,7 +54013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:44">
+    <row r="638" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C638" t="s">
         <v>6685</v>
       </c>
@@ -53990,7 +54045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:44">
+    <row r="639" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C639" t="s">
         <v>6686</v>
       </c>
@@ -54022,7 +54077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:44">
+    <row r="640" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C640" t="s">
         <v>6687</v>
       </c>
@@ -54054,7 +54109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:44">
+    <row r="641" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C641" t="s">
         <v>6688</v>
       </c>
@@ -54086,7 +54141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:44">
+    <row r="642" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C642" t="s">
         <v>6689</v>
       </c>
@@ -54118,7 +54173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:44">
+    <row r="643" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C643" t="s">
         <v>6690</v>
       </c>
@@ -54150,7 +54205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:44">
+    <row r="644" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C644" t="s">
         <v>6691</v>
       </c>
@@ -54182,7 +54237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="3:44">
+    <row r="645" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C645" t="s">
         <v>6692</v>
       </c>
@@ -54214,7 +54269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:44">
+    <row r="646" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C646" t="s">
         <v>6693</v>
       </c>
@@ -54246,7 +54301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:44">
+    <row r="647" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C647" t="s">
         <v>6694</v>
       </c>
@@ -54278,7 +54333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:44">
+    <row r="648" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C648" t="s">
         <v>6695</v>
       </c>
@@ -54310,7 +54365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="3:44">
+    <row r="649" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C649" t="s">
         <v>6696</v>
       </c>
@@ -54342,7 +54397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:44">
+    <row r="650" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C650" t="s">
         <v>6697</v>
       </c>
@@ -54374,7 +54429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:44">
+    <row r="651" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C651" t="s">
         <v>6698</v>
       </c>
@@ -54406,7 +54461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:44">
+    <row r="652" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C652" t="s">
         <v>6699</v>
       </c>
@@ -54438,7 +54493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:44">
+    <row r="653" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C653" t="s">
         <v>6700</v>
       </c>
@@ -54470,7 +54525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:44">
+    <row r="654" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C654" t="s">
         <v>6701</v>
       </c>
@@ -54502,7 +54557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:44">
+    <row r="655" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C655" t="s">
         <v>6702</v>
       </c>
@@ -54534,7 +54589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:44">
+    <row r="656" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C656" t="s">
         <v>6703</v>
       </c>
@@ -54566,7 +54621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:44">
+    <row r="657" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C657" t="s">
         <v>6704</v>
       </c>
@@ -54598,7 +54653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:44">
+    <row r="658" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C658" t="s">
         <v>6705</v>
       </c>
@@ -54630,7 +54685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:44">
+    <row r="659" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C659" t="s">
         <v>6706</v>
       </c>
@@ -54662,7 +54717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="3:44">
+    <row r="660" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C660" t="s">
         <v>6707</v>
       </c>
@@ -54694,7 +54749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:44">
+    <row r="661" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C661" t="s">
         <v>6708</v>
       </c>
@@ -54726,7 +54781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="3:44">
+    <row r="662" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C662" t="s">
         <v>6709</v>
       </c>
@@ -54758,7 +54813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:44">
+    <row r="663" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C663" t="s">
         <v>6710</v>
       </c>
@@ -54790,7 +54845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:44">
+    <row r="664" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C664" t="s">
         <v>6711</v>
       </c>
@@ -54822,7 +54877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:44">
+    <row r="665" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C665" t="s">
         <v>6712</v>
       </c>
@@ -54854,7 +54909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:44">
+    <row r="666" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C666" t="s">
         <v>6713</v>
       </c>
@@ -54886,7 +54941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:44">
+    <row r="667" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C667" t="s">
         <v>6714</v>
       </c>
@@ -54918,7 +54973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:44">
+    <row r="668" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C668" t="s">
         <v>6715</v>
       </c>
@@ -54950,7 +55005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:44">
+    <row r="669" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C669" t="s">
         <v>6716</v>
       </c>
@@ -54982,7 +55037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:44">
+    <row r="670" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C670" t="s">
         <v>6717</v>
       </c>
@@ -55014,7 +55069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:44">
+    <row r="671" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C671" t="s">
         <v>6718</v>
       </c>
@@ -55046,7 +55101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:44">
+    <row r="672" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C672" t="s">
         <v>6719</v>
       </c>
@@ -55078,7 +55133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:44">
+    <row r="673" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C673" t="s">
         <v>6720</v>
       </c>
@@ -55110,7 +55165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:44">
+    <row r="674" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C674" t="s">
         <v>6721</v>
       </c>
@@ -55142,7 +55197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:44">
+    <row r="675" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C675" t="s">
         <v>6722</v>
       </c>
@@ -55174,7 +55229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:44">
+    <row r="676" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C676" t="s">
         <v>6723</v>
       </c>
@@ -55206,7 +55261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:44">
+    <row r="677" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C677" t="s">
         <v>6724</v>
       </c>
@@ -55238,7 +55293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:44">
+    <row r="678" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C678" t="s">
         <v>6725</v>
       </c>
@@ -55270,7 +55325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="3:44">
+    <row r="679" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C679" t="s">
         <v>6726</v>
       </c>
@@ -55302,7 +55357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="3:44">
+    <row r="680" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C680" t="s">
         <v>6727</v>
       </c>
@@ -55334,7 +55389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:44">
+    <row r="681" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C681" t="s">
         <v>6728</v>
       </c>
@@ -55366,7 +55421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:44">
+    <row r="682" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C682" t="s">
         <v>6729</v>
       </c>
@@ -55398,7 +55453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:44">
+    <row r="683" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C683" t="s">
         <v>6730</v>
       </c>
@@ -55430,7 +55485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:44">
+    <row r="684" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C684" t="s">
         <v>6731</v>
       </c>
@@ -55462,7 +55517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:44">
+    <row r="685" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C685" t="s">
         <v>6732</v>
       </c>
@@ -55494,7 +55549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:44">
+    <row r="686" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C686" t="s">
         <v>6733</v>
       </c>
@@ -55526,7 +55581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:44">
+    <row r="687" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C687" t="s">
         <v>6734</v>
       </c>
@@ -55558,7 +55613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:44">
+    <row r="688" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C688" t="s">
         <v>6735</v>
       </c>
@@ -55590,7 +55645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:44">
+    <row r="689" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C689" t="s">
         <v>6736</v>
       </c>
@@ -55622,7 +55677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:44">
+    <row r="690" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C690" t="s">
         <v>6737</v>
       </c>
@@ -55654,7 +55709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:44">
+    <row r="691" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C691" t="s">
         <v>6738</v>
       </c>
@@ -55686,7 +55741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="3:44">
+    <row r="692" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C692" t="s">
         <v>6739</v>
       </c>
@@ -55718,7 +55773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:44">
+    <row r="693" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C693" t="s">
         <v>6740</v>
       </c>
@@ -55750,7 +55805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:44">
+    <row r="694" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C694" t="s">
         <v>6741</v>
       </c>
@@ -55782,7 +55837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:44">
+    <row r="695" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C695" t="s">
         <v>6742</v>
       </c>
@@ -55814,7 +55869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:44">
+    <row r="696" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C696" t="s">
         <v>6743</v>
       </c>
@@ -55846,7 +55901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:44">
+    <row r="697" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C697" t="s">
         <v>6744</v>
       </c>
@@ -55878,7 +55933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:44">
+    <row r="698" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C698" t="s">
         <v>6745</v>
       </c>
@@ -55910,7 +55965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="3:44">
+    <row r="699" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C699" t="s">
         <v>6746</v>
       </c>
@@ -55942,7 +55997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="3:44">
+    <row r="700" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C700" t="s">
         <v>6747</v>
       </c>
@@ -55974,7 +56029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="3:44">
+    <row r="701" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C701" t="s">
         <v>6748</v>
       </c>
@@ -56006,7 +56061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="3:44">
+    <row r="702" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C702" t="s">
         <v>6749</v>
       </c>
@@ -56038,7 +56093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="3:44">
+    <row r="703" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C703" t="s">
         <v>6750</v>
       </c>
@@ -56070,7 +56125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:44">
+    <row r="704" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C704" t="s">
         <v>6751</v>
       </c>
@@ -56102,7 +56157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:44">
+    <row r="705" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C705" t="s">
         <v>6752</v>
       </c>
@@ -56134,7 +56189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:44">
+    <row r="706" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C706" t="s">
         <v>6753</v>
       </c>
@@ -56166,7 +56221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:44">
+    <row r="707" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C707" t="s">
         <v>6754</v>
       </c>
@@ -56198,7 +56253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:44">
+    <row r="708" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C708" t="s">
         <v>6755</v>
       </c>
@@ -56230,7 +56285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:44">
+    <row r="709" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C709" t="s">
         <v>6756</v>
       </c>
@@ -56262,7 +56317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:44">
+    <row r="710" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C710" t="s">
         <v>6757</v>
       </c>
@@ -56294,7 +56349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:44">
+    <row r="711" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C711" t="s">
         <v>6758</v>
       </c>
@@ -56326,7 +56381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:44">
+    <row r="712" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C712" t="s">
         <v>6759</v>
       </c>
@@ -56358,7 +56413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:44">
+    <row r="713" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C713" t="s">
         <v>6760</v>
       </c>
@@ -56390,7 +56445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:44">
+    <row r="714" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C714" t="s">
         <v>6761</v>
       </c>
@@ -56422,7 +56477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:44">
+    <row r="715" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C715" t="s">
         <v>6762</v>
       </c>
@@ -56454,7 +56509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:44">
+    <row r="716" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C716" t="s">
         <v>6763</v>
       </c>
@@ -56486,7 +56541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:44">
+    <row r="717" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C717" t="s">
         <v>6764</v>
       </c>
@@ -56518,7 +56573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:44">
+    <row r="718" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C718" t="s">
         <v>6765</v>
       </c>
@@ -56550,7 +56605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="3:44">
+    <row r="719" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C719" t="s">
         <v>6766</v>
       </c>
@@ -56582,7 +56637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:44">
+    <row r="720" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C720" t="s">
         <v>6767</v>
       </c>
@@ -56614,7 +56669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:44">
+    <row r="721" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C721" t="s">
         <v>6768</v>
       </c>
@@ -56646,7 +56701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:44">
+    <row r="722" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C722" t="s">
         <v>6769</v>
       </c>
@@ -56678,7 +56733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:44">
+    <row r="723" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C723" t="s">
         <v>6770</v>
       </c>
@@ -56710,7 +56765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:44">
+    <row r="724" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C724" t="s">
         <v>6771</v>
       </c>
@@ -56742,7 +56797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:44">
+    <row r="725" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C725" t="s">
         <v>6772</v>
       </c>
@@ -56774,7 +56829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:44">
+    <row r="726" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C726" t="s">
         <v>6773</v>
       </c>
@@ -56806,7 +56861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:44">
+    <row r="727" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C727" t="s">
         <v>6774</v>
       </c>
@@ -56838,7 +56893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:44">
+    <row r="728" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C728" t="s">
         <v>6775</v>
       </c>
@@ -56870,7 +56925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="3:44">
+    <row r="729" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C729" t="s">
         <v>6776</v>
       </c>
@@ -56902,7 +56957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:44">
+    <row r="730" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C730" t="s">
         <v>6777</v>
       </c>
@@ -56934,7 +56989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:44">
+    <row r="731" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C731" t="s">
         <v>6778</v>
       </c>
@@ -56966,7 +57021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:44">
+    <row r="732" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C732" t="s">
         <v>6779</v>
       </c>
@@ -56998,7 +57053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:44">
+    <row r="733" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C733" t="s">
         <v>6780</v>
       </c>
@@ -57030,7 +57085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:44">
+    <row r="734" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C734" t="s">
         <v>6781</v>
       </c>
@@ -57062,7 +57117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:44">
+    <row r="735" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C735" t="s">
         <v>6782</v>
       </c>
@@ -57094,7 +57149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:44">
+    <row r="736" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C736" t="s">
         <v>6783</v>
       </c>
@@ -57126,7 +57181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:44">
+    <row r="737" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C737" t="s">
         <v>6784</v>
       </c>
@@ -57158,7 +57213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:44">
+    <row r="738" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C738" t="s">
         <v>6785</v>
       </c>
@@ -57190,7 +57245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:44">
+    <row r="739" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C739" t="s">
         <v>6786</v>
       </c>
@@ -57222,7 +57277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:44">
+    <row r="740" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C740" t="s">
         <v>6787</v>
       </c>
@@ -57254,7 +57309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:44">
+    <row r="741" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C741" t="s">
         <v>6788</v>
       </c>
@@ -57286,7 +57341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:44">
+    <row r="742" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C742" t="s">
         <v>6789</v>
       </c>
@@ -57318,7 +57373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="3:44">
+    <row r="743" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C743" t="s">
         <v>6790</v>
       </c>
@@ -57350,7 +57405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="3:44">
+    <row r="744" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C744" t="s">
         <v>6791</v>
       </c>
@@ -57382,7 +57437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:44">
+    <row r="745" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C745" t="s">
         <v>6792</v>
       </c>
@@ -57414,7 +57469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:44">
+    <row r="746" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C746" t="s">
         <v>6793</v>
       </c>
@@ -57446,7 +57501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:44">
+    <row r="747" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C747" t="s">
         <v>6794</v>
       </c>
@@ -57478,7 +57533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:44">
+    <row r="748" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C748" t="s">
         <v>6795</v>
       </c>
@@ -57510,7 +57565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:44">
+    <row r="749" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C749" t="s">
         <v>6796</v>
       </c>
@@ -57542,7 +57597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:44">
+    <row r="750" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C750" t="s">
         <v>6797</v>
       </c>
@@ -57574,7 +57629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:44">
+    <row r="751" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C751" t="s">
         <v>6798</v>
       </c>
@@ -57606,7 +57661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:44">
+    <row r="752" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C752" t="s">
         <v>6799</v>
       </c>
@@ -57638,7 +57693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:44">
+    <row r="753" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C753" t="s">
         <v>6800</v>
       </c>
@@ -57670,7 +57725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:44">
+    <row r="754" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C754" t="s">
         <v>6801</v>
       </c>
@@ -57702,7 +57757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:44">
+    <row r="755" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C755" t="s">
         <v>6802</v>
       </c>
@@ -57734,7 +57789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:44">
+    <row r="756" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C756" t="s">
         <v>6803</v>
       </c>
@@ -57766,7 +57821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:44">
+    <row r="757" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C757" t="s">
         <v>6804</v>
       </c>
@@ -57798,7 +57853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:44">
+    <row r="758" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C758" t="s">
         <v>6805</v>
       </c>
@@ -57830,7 +57885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="3:44">
+    <row r="759" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C759" t="s">
         <v>6806</v>
       </c>
@@ -57862,7 +57917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="3:44">
+    <row r="760" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C760" t="s">
         <v>6807</v>
       </c>
@@ -57894,7 +57949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:44">
+    <row r="761" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C761" t="s">
         <v>6808</v>
       </c>
@@ -57926,7 +57981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="3:44">
+    <row r="762" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C762" t="s">
         <v>6809</v>
       </c>
@@ -57958,7 +58013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="3:44">
+    <row r="763" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C763" t="s">
         <v>6810</v>
       </c>
@@ -57990,7 +58045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="3:44">
+    <row r="764" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C764" t="s">
         <v>6811</v>
       </c>
@@ -58022,7 +58077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="3:44">
+    <row r="765" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C765" t="s">
         <v>6812</v>
       </c>
@@ -58054,7 +58109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="3:44">
+    <row r="766" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C766" t="s">
         <v>6813</v>
       </c>
@@ -58086,7 +58141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="3:44">
+    <row r="767" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C767" t="s">
         <v>6814</v>
       </c>
@@ -58118,7 +58173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="3:44">
+    <row r="768" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C768" t="s">
         <v>6815</v>
       </c>
@@ -58150,7 +58205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:44">
+    <row r="769" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C769" t="s">
         <v>6816</v>
       </c>
@@ -58182,7 +58237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:44">
+    <row r="770" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C770" t="s">
         <v>6817</v>
       </c>
@@ -58214,7 +58269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:44">
+    <row r="771" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C771" t="s">
         <v>6818</v>
       </c>
@@ -58246,7 +58301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:44">
+    <row r="772" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C772" t="s">
         <v>6819</v>
       </c>
@@ -58278,7 +58333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:44">
+    <row r="773" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C773" t="s">
         <v>6820</v>
       </c>
@@ -58310,7 +58365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:44">
+    <row r="774" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C774" t="s">
         <v>6821</v>
       </c>
@@ -58342,7 +58397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:44">
+    <row r="775" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C775" t="s">
         <v>6822</v>
       </c>
@@ -58374,7 +58429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="3:44">
+    <row r="776" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C776" t="s">
         <v>6823</v>
       </c>
@@ -58406,7 +58461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:44">
+    <row r="777" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C777" t="s">
         <v>6824</v>
       </c>
@@ -58438,7 +58493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:44">
+    <row r="778" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C778" t="s">
         <v>6825</v>
       </c>
@@ -58470,7 +58525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:44">
+    <row r="779" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C779" t="s">
         <v>6826</v>
       </c>
@@ -58502,7 +58557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:44">
+    <row r="780" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C780" t="s">
         <v>6827</v>
       </c>
@@ -58534,7 +58589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:44">
+    <row r="781" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C781" t="s">
         <v>6828</v>
       </c>
@@ -58566,7 +58621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:44">
+    <row r="782" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C782" t="s">
         <v>6829</v>
       </c>
@@ -58598,7 +58653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="3:44">
+    <row r="783" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C783" t="s">
         <v>6830</v>
       </c>
@@ -58630,7 +58685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:44">
+    <row r="784" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C784" t="s">
         <v>6831</v>
       </c>
@@ -58662,7 +58717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:44">
+    <row r="785" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C785" t="s">
         <v>6832</v>
       </c>
@@ -58694,7 +58749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:44">
+    <row r="786" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C786" t="s">
         <v>6833</v>
       </c>
@@ -58726,7 +58781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:44">
+    <row r="787" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C787" t="s">
         <v>6834</v>
       </c>
@@ -58758,7 +58813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:44">
+    <row r="788" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C788" t="s">
         <v>6835</v>
       </c>
@@ -58790,7 +58845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:44">
+    <row r="789" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C789" t="s">
         <v>6836</v>
       </c>
@@ -58822,7 +58877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:44">
+    <row r="790" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C790" t="s">
         <v>6837</v>
       </c>
@@ -58854,7 +58909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:44">
+    <row r="791" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C791" t="s">
         <v>6838</v>
       </c>
@@ -58886,7 +58941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:44">
+    <row r="792" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C792" t="s">
         <v>6839</v>
       </c>
@@ -58918,7 +58973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:44">
+    <row r="793" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C793" t="s">
         <v>6840</v>
       </c>
@@ -58950,7 +59005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:44">
+    <row r="794" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C794" t="s">
         <v>6841</v>
       </c>
@@ -58982,7 +59037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:44">
+    <row r="795" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C795" t="s">
         <v>6842</v>
       </c>
@@ -59014,7 +59069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:44">
+    <row r="796" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C796" t="s">
         <v>6843</v>
       </c>
@@ -59046,7 +59101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:44">
+    <row r="797" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C797" t="s">
         <v>6844</v>
       </c>
@@ -59078,7 +59133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:44">
+    <row r="798" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C798" t="s">
         <v>6845</v>
       </c>
@@ -59110,7 +59165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:44">
+    <row r="799" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C799" t="s">
         <v>6846</v>
       </c>
@@ -59142,7 +59197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:44">
+    <row r="800" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C800" t="s">
         <v>6847</v>
       </c>
@@ -59174,7 +59229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:44">
+    <row r="801" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C801" t="s">
         <v>6848</v>
       </c>
@@ -59206,7 +59261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:44">
+    <row r="802" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C802" t="s">
         <v>6849</v>
       </c>
@@ -59238,7 +59293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:44">
+    <row r="803" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C803" t="s">
         <v>6850</v>
       </c>
@@ -59270,7 +59325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:44">
+    <row r="804" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C804" t="s">
         <v>6851</v>
       </c>
@@ -59302,7 +59357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:44">
+    <row r="805" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C805" t="s">
         <v>6852</v>
       </c>
@@ -59334,7 +59389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:44">
+    <row r="806" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C806" t="s">
         <v>6853</v>
       </c>
@@ -59366,7 +59421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="3:44">
+    <row r="807" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C807" t="s">
         <v>6854</v>
       </c>
@@ -59398,7 +59453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="3:44">
+    <row r="808" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C808" t="s">
         <v>6855</v>
       </c>
@@ -59430,7 +59485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:44">
+    <row r="809" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C809" t="s">
         <v>6856</v>
       </c>
@@ -59462,7 +59517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:44">
+    <row r="810" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C810" t="s">
         <v>6857</v>
       </c>
@@ -59494,7 +59549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:44">
+    <row r="811" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C811" t="s">
         <v>6858</v>
       </c>
@@ -59526,7 +59581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:44">
+    <row r="812" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C812" t="s">
         <v>6859</v>
       </c>
@@ -59558,7 +59613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:44">
+    <row r="813" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C813" t="s">
         <v>6860</v>
       </c>
@@ -59590,7 +59645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:44">
+    <row r="814" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C814" t="s">
         <v>6861</v>
       </c>
@@ -59622,7 +59677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:44">
+    <row r="815" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C815" t="s">
         <v>6862</v>
       </c>
@@ -59654,7 +59709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:44">
+    <row r="816" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C816" t="s">
         <v>6863</v>
       </c>
@@ -59686,7 +59741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:44">
+    <row r="817" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C817" t="s">
         <v>6864</v>
       </c>
@@ -59718,7 +59773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:44">
+    <row r="818" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C818" t="s">
         <v>6865</v>
       </c>
@@ -59750,7 +59805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:44">
+    <row r="819" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C819" t="s">
         <v>6866</v>
       </c>
@@ -59782,7 +59837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:44">
+    <row r="820" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C820" t="s">
         <v>6867</v>
       </c>
@@ -59814,7 +59869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:44">
+    <row r="821" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C821" t="s">
         <v>6868</v>
       </c>
@@ -59846,7 +59901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:44">
+    <row r="822" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C822" t="s">
         <v>6869</v>
       </c>
@@ -59878,7 +59933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:44">
+    <row r="823" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C823" t="s">
         <v>6870</v>
       </c>
@@ -59910,7 +59965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:44">
+    <row r="824" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C824" t="s">
         <v>6871</v>
       </c>
@@ -59942,7 +59997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:44">
+    <row r="825" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C825" t="s">
         <v>6872</v>
       </c>
@@ -59974,7 +60029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:44">
+    <row r="826" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C826" t="s">
         <v>6873</v>
       </c>
@@ -60006,7 +60061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="3:44">
+    <row r="827" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C827" t="s">
         <v>6874</v>
       </c>
@@ -60038,7 +60093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="3:44">
+    <row r="828" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C828" t="s">
         <v>6875</v>
       </c>
@@ -60070,7 +60125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="3:44">
+    <row r="829" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C829" t="s">
         <v>6876</v>
       </c>
@@ -60102,7 +60157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="3:44">
+    <row r="830" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C830" t="s">
         <v>6877</v>
       </c>
@@ -60134,7 +60189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="3:44">
+    <row r="831" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C831" t="s">
         <v>6878</v>
       </c>
@@ -60166,7 +60221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:44">
+    <row r="832" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C832" t="s">
         <v>6879</v>
       </c>
@@ -60198,7 +60253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:44">
+    <row r="833" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C833" t="s">
         <v>6880</v>
       </c>
@@ -60230,7 +60285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:44">
+    <row r="834" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C834" t="s">
         <v>6881</v>
       </c>
@@ -60262,7 +60317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:44">
+    <row r="835" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C835" t="s">
         <v>6882</v>
       </c>
@@ -60294,7 +60349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:44">
+    <row r="836" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C836" t="s">
         <v>6883</v>
       </c>
@@ -60326,7 +60381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:44">
+    <row r="837" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C837" t="s">
         <v>6884</v>
       </c>
@@ -60358,7 +60413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:44">
+    <row r="838" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C838" t="s">
         <v>6885</v>
       </c>
@@ -60390,7 +60445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:44">
+    <row r="839" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C839" t="s">
         <v>6886</v>
       </c>
@@ -60422,7 +60477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:44">
+    <row r="840" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C840" t="s">
         <v>6887</v>
       </c>
@@ -60454,7 +60509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:44">
+    <row r="841" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C841" t="s">
         <v>6888</v>
       </c>
@@ -60486,7 +60541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:44">
+    <row r="842" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C842" t="s">
         <v>6889</v>
       </c>
@@ -60518,7 +60573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="3:44">
+    <row r="843" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C843" t="s">
         <v>6890</v>
       </c>
@@ -60550,7 +60605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="3:44">
+    <row r="844" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C844" t="s">
         <v>6891</v>
       </c>
@@ -60582,7 +60637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="3:44">
+    <row r="845" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C845" t="s">
         <v>6892</v>
       </c>
@@ -60614,7 +60669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="3:44">
+    <row r="846" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C846" t="s">
         <v>6893</v>
       </c>
@@ -60646,7 +60701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="3:44">
+    <row r="847" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C847" t="s">
         <v>6894</v>
       </c>
@@ -60678,7 +60733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="3:44">
+    <row r="848" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C848" t="s">
         <v>6895</v>
       </c>
@@ -60710,7 +60765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="3:44">
+    <row r="849" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C849" t="s">
         <v>6896</v>
       </c>
@@ -60742,7 +60797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="3:44">
+    <row r="850" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C850" t="s">
         <v>6897</v>
       </c>
@@ -60774,7 +60829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="3:44">
+    <row r="851" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C851" t="s">
         <v>6898</v>
       </c>
@@ -60806,7 +60861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="3:44">
+    <row r="852" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C852" t="s">
         <v>6899</v>
       </c>
@@ -60838,7 +60893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:44">
+    <row r="853" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C853" t="s">
         <v>6900</v>
       </c>
@@ -60870,7 +60925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:44">
+    <row r="854" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C854" t="s">
         <v>6901</v>
       </c>
@@ -60902,7 +60957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:44">
+    <row r="855" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C855" t="s">
         <v>6902</v>
       </c>
@@ -60934,7 +60989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:44">
+    <row r="856" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C856" t="s">
         <v>6903</v>
       </c>
@@ -60966,7 +61021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:44">
+    <row r="857" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C857" t="s">
         <v>6904</v>
       </c>
@@ -60998,7 +61053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:44">
+    <row r="858" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C858" t="s">
         <v>6905</v>
       </c>
@@ -61030,7 +61085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:44">
+    <row r="859" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C859" t="s">
         <v>6906</v>
       </c>
@@ -61062,7 +61117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="3:44">
+    <row r="860" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C860" t="s">
         <v>6907</v>
       </c>
@@ -61094,7 +61149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:44">
+    <row r="861" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C861" t="s">
         <v>6908</v>
       </c>
@@ -61126,7 +61181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:44">
+    <row r="862" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C862" t="s">
         <v>6909</v>
       </c>
@@ -61158,7 +61213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:44">
+    <row r="863" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C863" t="s">
         <v>6910</v>
       </c>
@@ -61190,7 +61245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:44">
+    <row r="864" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C864" t="s">
         <v>6911</v>
       </c>
@@ -61222,7 +61277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:44">
+    <row r="865" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C865" t="s">
         <v>6912</v>
       </c>
@@ -61254,7 +61309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:44">
+    <row r="866" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C866" t="s">
         <v>6913</v>
       </c>
@@ -61286,7 +61341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="3:44">
+    <row r="867" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C867" t="s">
         <v>6914</v>
       </c>
@@ -61318,7 +61373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:44">
+    <row r="868" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C868" t="s">
         <v>6915</v>
       </c>
@@ -61350,7 +61405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:44">
+    <row r="869" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C869" t="s">
         <v>6916</v>
       </c>
@@ -61382,7 +61437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:44">
+    <row r="870" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C870" t="s">
         <v>6917</v>
       </c>
@@ -61414,7 +61469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="3:44">
+    <row r="871" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C871" t="s">
         <v>6918</v>
       </c>
@@ -61446,7 +61501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="3:44">
+    <row r="872" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C872" t="s">
         <v>6919</v>
       </c>
@@ -61478,7 +61533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:44">
+    <row r="873" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C873" t="s">
         <v>6920</v>
       </c>
@@ -61510,7 +61565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:44">
+    <row r="874" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C874" t="s">
         <v>6921</v>
       </c>
@@ -61542,7 +61597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:44">
+    <row r="875" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C875" t="s">
         <v>6922</v>
       </c>
@@ -61574,7 +61629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:44">
+    <row r="876" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C876" t="s">
         <v>6923</v>
       </c>
@@ -61606,7 +61661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:44">
+    <row r="877" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C877" t="s">
         <v>6924</v>
       </c>
@@ -61638,7 +61693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:44">
+    <row r="878" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C878" t="s">
         <v>6925</v>
       </c>
@@ -61670,7 +61725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:44">
+    <row r="879" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C879" t="s">
         <v>6926</v>
       </c>
@@ -61702,7 +61757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:44">
+    <row r="880" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C880" t="s">
         <v>6927</v>
       </c>
@@ -61734,7 +61789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="3:44">
+    <row r="881" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C881" t="s">
         <v>6928</v>
       </c>
@@ -61766,7 +61821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="3:44">
+    <row r="882" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C882" t="s">
         <v>6929</v>
       </c>
@@ -61798,7 +61853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="3:44">
+    <row r="883" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C883" t="s">
         <v>6930</v>
       </c>
@@ -61830,7 +61885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="3:44">
+    <row r="884" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C884" t="s">
         <v>6931</v>
       </c>
@@ -61862,7 +61917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="3:44">
+    <row r="885" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C885" t="s">
         <v>6932</v>
       </c>
@@ -61894,7 +61949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="3:44">
+    <row r="886" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C886" t="s">
         <v>6933</v>
       </c>
@@ -61926,7 +61981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="3:44">
+    <row r="887" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C887" t="s">
         <v>6934</v>
       </c>
@@ -61958,7 +62013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="3:44">
+    <row r="888" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C888" t="s">
         <v>6935</v>
       </c>
@@ -61990,7 +62045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="3:44">
+    <row r="889" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C889" t="s">
         <v>6936</v>
       </c>
@@ -62022,7 +62077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="3:44">
+    <row r="890" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C890" t="s">
         <v>6937</v>
       </c>
@@ -62054,7 +62109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="3:44">
+    <row r="891" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C891" t="s">
         <v>6938</v>
       </c>
@@ -62086,7 +62141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="3:44">
+    <row r="892" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C892" t="s">
         <v>6939</v>
       </c>
@@ -62118,7 +62173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="3:44">
+    <row r="893" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C893" t="s">
         <v>6940</v>
       </c>
@@ -62150,7 +62205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="3:44">
+    <row r="894" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C894" t="s">
         <v>6941</v>
       </c>
@@ -62182,7 +62237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="3:44">
+    <row r="895" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C895" t="s">
         <v>6942</v>
       </c>
@@ -62214,7 +62269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="3:44">
+    <row r="896" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C896" t="s">
         <v>6943</v>
       </c>
@@ -62246,7 +62301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="3:44">
+    <row r="897" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C897" t="s">
         <v>6944</v>
       </c>
@@ -62278,7 +62333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="3:44">
+    <row r="898" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C898" t="s">
         <v>6945</v>
       </c>
@@ -62310,7 +62365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="3:44">
+    <row r="899" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C899" t="s">
         <v>6946</v>
       </c>
@@ -62342,7 +62397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="3:44">
+    <row r="900" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C900" t="s">
         <v>6947</v>
       </c>
@@ -62374,7 +62429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="3:44">
+    <row r="901" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C901" t="s">
         <v>6948</v>
       </c>
@@ -62406,7 +62461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="3:44">
+    <row r="902" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C902" t="s">
         <v>6949</v>
       </c>
@@ -62438,7 +62493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="3:44">
+    <row r="903" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C903" t="s">
         <v>6950</v>
       </c>
@@ -62470,7 +62525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="3:44">
+    <row r="904" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C904" t="s">
         <v>6951</v>
       </c>
@@ -62502,7 +62557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="3:44">
+    <row r="905" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C905" t="s">
         <v>6952</v>
       </c>
@@ -62534,7 +62589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="3:44">
+    <row r="906" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C906" t="s">
         <v>6953</v>
       </c>
@@ -62566,7 +62621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="3:44">
+    <row r="907" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C907" t="s">
         <v>6954</v>
       </c>
@@ -62598,7 +62653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="3:44">
+    <row r="908" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C908" t="s">
         <v>6955</v>
       </c>
@@ -62630,7 +62685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="3:44">
+    <row r="909" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C909" t="s">
         <v>6956</v>
       </c>
@@ -62662,7 +62717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="3:44">
+    <row r="910" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C910" t="s">
         <v>6957</v>
       </c>
@@ -62694,7 +62749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="3:44">
+    <row r="911" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C911" t="s">
         <v>6958</v>
       </c>
@@ -62726,7 +62781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="3:44">
+    <row r="912" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C912" t="s">
         <v>6959</v>
       </c>
@@ -62758,7 +62813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="3:44">
+    <row r="913" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C913" t="s">
         <v>6960</v>
       </c>
@@ -62790,7 +62845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="3:44">
+    <row r="914" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C914" t="s">
         <v>6961</v>
       </c>
@@ -62822,7 +62877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="3:44">
+    <row r="915" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C915" t="s">
         <v>6962</v>
       </c>
@@ -62854,7 +62909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="3:44">
+    <row r="916" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C916" t="s">
         <v>6963</v>
       </c>
@@ -62886,7 +62941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="3:44">
+    <row r="917" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C917" t="s">
         <v>6964</v>
       </c>
@@ -62918,7 +62973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="3:44">
+    <row r="918" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C918" t="s">
         <v>6965</v>
       </c>
@@ -62950,7 +63005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="3:44">
+    <row r="919" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C919" t="s">
         <v>6966</v>
       </c>
@@ -62982,7 +63037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="3:44">
+    <row r="920" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C920" t="s">
         <v>6967</v>
       </c>
@@ -63014,7 +63069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="3:44">
+    <row r="921" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C921" t="s">
         <v>6968</v>
       </c>
@@ -63046,7 +63101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="3:44">
+    <row r="922" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C922" t="s">
         <v>6969</v>
       </c>
@@ -63078,7 +63133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="3:44">
+    <row r="923" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C923" t="s">
         <v>6970</v>
       </c>
@@ -63110,7 +63165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="3:44">
+    <row r="924" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C924" t="s">
         <v>6971</v>
       </c>
@@ -63142,7 +63197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="3:44">
+    <row r="925" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C925" t="s">
         <v>6972</v>
       </c>
@@ -63174,7 +63229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="3:44">
+    <row r="926" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C926" t="s">
         <v>6973</v>
       </c>
@@ -63206,7 +63261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="3:44">
+    <row r="927" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C927" t="s">
         <v>6974</v>
       </c>
@@ -63238,7 +63293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="3:44">
+    <row r="928" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C928" t="s">
         <v>6975</v>
       </c>
@@ -63270,7 +63325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="3:44">
+    <row r="929" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C929" t="s">
         <v>6976</v>
       </c>
@@ -63302,7 +63357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="3:44">
+    <row r="930" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C930" t="s">
         <v>6977</v>
       </c>
@@ -63334,7 +63389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="3:44">
+    <row r="931" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C931" t="s">
         <v>6978</v>
       </c>
@@ -63366,7 +63421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="3:44">
+    <row r="932" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C932" t="s">
         <v>6979</v>
       </c>
@@ -63398,7 +63453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="3:44">
+    <row r="933" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C933" t="s">
         <v>6980</v>
       </c>
@@ -63430,7 +63485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="3:44">
+    <row r="934" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C934" t="s">
         <v>6981</v>
       </c>
@@ -63462,7 +63517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="3:44">
+    <row r="935" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C935" t="s">
         <v>6982</v>
       </c>
@@ -63494,7 +63549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="3:44">
+    <row r="936" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C936" t="s">
         <v>6983</v>
       </c>
@@ -63526,7 +63581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="3:44">
+    <row r="937" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C937" t="s">
         <v>6984</v>
       </c>
@@ -63558,7 +63613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="3:44">
+    <row r="938" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C938" t="s">
         <v>6985</v>
       </c>
@@ -63590,7 +63645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="3:44">
+    <row r="939" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C939" t="s">
         <v>6986</v>
       </c>
@@ -63622,7 +63677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="3:44">
+    <row r="940" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C940" t="s">
         <v>6987</v>
       </c>
@@ -63654,7 +63709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="3:44">
+    <row r="941" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C941" t="s">
         <v>6988</v>
       </c>
@@ -63686,7 +63741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="3:44">
+    <row r="942" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C942" t="s">
         <v>6989</v>
       </c>
@@ -63718,7 +63773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="3:44">
+    <row r="943" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C943" t="s">
         <v>6990</v>
       </c>
@@ -63750,7 +63805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="3:44">
+    <row r="944" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C944" t="s">
         <v>6991</v>
       </c>
@@ -63782,7 +63837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="3:44">
+    <row r="945" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C945" t="s">
         <v>6992</v>
       </c>
@@ -63814,7 +63869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="3:44">
+    <row r="946" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C946" t="s">
         <v>6993</v>
       </c>
@@ -63846,7 +63901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="3:44">
+    <row r="947" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C947" t="s">
         <v>6994</v>
       </c>
@@ -63878,7 +63933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="3:44">
+    <row r="948" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C948" t="s">
         <v>6995</v>
       </c>
@@ -63910,7 +63965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="3:44">
+    <row r="949" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C949" t="s">
         <v>6996</v>
       </c>
@@ -63942,7 +63997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="3:44">
+    <row r="950" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C950" t="s">
         <v>6997</v>
       </c>
@@ -63974,7 +64029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="3:44">
+    <row r="951" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C951" t="s">
         <v>6998</v>
       </c>
@@ -64006,7 +64061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="3:44">
+    <row r="952" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C952" t="s">
         <v>6999</v>
       </c>
@@ -64038,7 +64093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="3:44">
+    <row r="953" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C953" t="s">
         <v>7000</v>
       </c>
@@ -64070,7 +64125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="3:44">
+    <row r="954" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C954" t="s">
         <v>7001</v>
       </c>
@@ -64102,7 +64157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="3:44">
+    <row r="955" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C955" t="s">
         <v>7002</v>
       </c>
@@ -64134,7 +64189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="3:44">
+    <row r="956" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C956" t="s">
         <v>7003</v>
       </c>
@@ -64166,7 +64221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="3:44">
+    <row r="957" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C957" t="s">
         <v>7004</v>
       </c>
@@ -64198,7 +64253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="3:44">
+    <row r="958" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C958" t="s">
         <v>7005</v>
       </c>
@@ -64230,7 +64285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="3:44">
+    <row r="959" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C959" t="s">
         <v>7006</v>
       </c>
@@ -64262,7 +64317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="3:44">
+    <row r="960" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C960" t="s">
         <v>7007</v>
       </c>
@@ -64294,7 +64349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="3:44">
+    <row r="961" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C961" t="s">
         <v>7008</v>
       </c>
@@ -64326,7 +64381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="3:44">
+    <row r="962" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C962" t="s">
         <v>7009</v>
       </c>
@@ -64358,7 +64413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="3:44">
+    <row r="963" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C963" t="s">
         <v>7010</v>
       </c>
@@ -64390,7 +64445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="3:44">
+    <row r="964" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C964" t="s">
         <v>7011</v>
       </c>
@@ -64422,7 +64477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="3:44">
+    <row r="965" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C965" t="s">
         <v>7012</v>
       </c>
@@ -64454,7 +64509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="3:44">
+    <row r="966" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C966" t="s">
         <v>7013</v>
       </c>
@@ -64486,7 +64541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="3:44">
+    <row r="967" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C967" t="s">
         <v>7014</v>
       </c>
@@ -64518,7 +64573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="3:44">
+    <row r="968" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C968" t="s">
         <v>7015</v>
       </c>
@@ -64550,7 +64605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="3:44">
+    <row r="969" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C969" t="s">
         <v>7016</v>
       </c>
@@ -64582,7 +64637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="3:44">
+    <row r="970" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C970" t="s">
         <v>7017</v>
       </c>
@@ -64614,7 +64669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="3:44">
+    <row r="971" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C971" t="s">
         <v>7018</v>
       </c>
@@ -64646,7 +64701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="3:44">
+    <row r="972" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C972" t="s">
         <v>7019</v>
       </c>
@@ -64678,7 +64733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="3:44">
+    <row r="973" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C973" t="s">
         <v>7020</v>
       </c>
@@ -64710,7 +64765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="3:44">
+    <row r="974" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C974" t="s">
         <v>7021</v>
       </c>
@@ -64742,7 +64797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="3:44">
+    <row r="975" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C975" t="s">
         <v>7022</v>
       </c>
@@ -64774,7 +64829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="3:44">
+    <row r="976" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C976" t="s">
         <v>7023</v>
       </c>
@@ -64806,7 +64861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="3:44">
+    <row r="977" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C977" t="s">
         <v>7024</v>
       </c>
@@ -64838,7 +64893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="3:44">
+    <row r="978" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C978" t="s">
         <v>7025</v>
       </c>
@@ -64870,7 +64925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="3:44">
+    <row r="979" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C979" t="s">
         <v>7026</v>
       </c>
@@ -64902,7 +64957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="3:44">
+    <row r="980" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C980" t="s">
         <v>7027</v>
       </c>
@@ -64934,7 +64989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="3:44">
+    <row r="981" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C981" t="s">
         <v>7028</v>
       </c>
@@ -64966,7 +65021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="3:44">
+    <row r="982" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C982" t="s">
         <v>7029</v>
       </c>
@@ -64998,7 +65053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="3:44">
+    <row r="983" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C983" t="s">
         <v>7030</v>
       </c>
@@ -65030,7 +65085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="3:44">
+    <row r="984" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C984" t="s">
         <v>7031</v>
       </c>
@@ -65062,7 +65117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="3:44">
+    <row r="985" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C985" t="s">
         <v>7032</v>
       </c>
@@ -65094,7 +65149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="3:44">
+    <row r="986" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C986" t="s">
         <v>7033</v>
       </c>
@@ -65126,7 +65181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="3:44">
+    <row r="987" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C987" t="s">
         <v>7034</v>
       </c>
@@ -65158,7 +65213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="3:44">
+    <row r="988" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C988" t="s">
         <v>7035</v>
       </c>
@@ -65190,7 +65245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="3:44">
+    <row r="989" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C989" t="s">
         <v>7036</v>
       </c>
@@ -65222,7 +65277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="3:44">
+    <row r="990" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C990" t="s">
         <v>7037</v>
       </c>
@@ -65254,7 +65309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="3:44">
+    <row r="991" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C991" t="s">
         <v>7038</v>
       </c>
@@ -65286,7 +65341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="3:44">
+    <row r="992" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C992" t="s">
         <v>7039</v>
       </c>
@@ -65318,7 +65373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="3:44">
+    <row r="993" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C993" t="s">
         <v>7040</v>
       </c>
@@ -65350,7 +65405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="3:44">
+    <row r="994" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C994" t="s">
         <v>7041</v>
       </c>
@@ -65382,7 +65437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="3:44">
+    <row r="995" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C995" t="s">
         <v>7042</v>
       </c>
@@ -65414,7 +65469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="3:44">
+    <row r="996" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C996" t="s">
         <v>7043</v>
       </c>
@@ -65446,7 +65501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="3:44">
+    <row r="997" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C997" t="s">
         <v>7044</v>
       </c>
@@ -65478,7 +65533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="3:44">
+    <row r="998" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C998" t="s">
         <v>7045</v>
       </c>
@@ -65510,7 +65565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="3:44">
+    <row r="999" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C999" t="s">
         <v>7046</v>
       </c>
@@ -65542,7 +65597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="3:44">
+    <row r="1000" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1000" t="s">
         <v>7047</v>
       </c>
@@ -65574,7 +65629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="3:44">
+    <row r="1001" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1001" t="s">
         <v>7048</v>
       </c>
@@ -65606,7 +65661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="3:44">
+    <row r="1002" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1002" t="s">
         <v>7049</v>
       </c>
@@ -65638,7 +65693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="3:44">
+    <row r="1003" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1003" t="s">
         <v>7050</v>
       </c>
@@ -65670,7 +65725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="3:44">
+    <row r="1004" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1004" t="s">
         <v>7051</v>
       </c>
@@ -65702,7 +65757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="3:44">
+    <row r="1005" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1005" t="s">
         <v>7052</v>
       </c>
@@ -65734,7 +65789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="3:44">
+    <row r="1006" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1006" t="s">
         <v>7053</v>
       </c>
@@ -65766,7 +65821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="3:44">
+    <row r="1007" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1007" t="s">
         <v>7054</v>
       </c>
@@ -65798,7 +65853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="3:44">
+    <row r="1008" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1008" t="s">
         <v>7055</v>
       </c>
@@ -65830,7 +65885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="3:44">
+    <row r="1009" spans="3:44" x14ac:dyDescent="0.3">
       <c r="C1009" t="s">
         <v>7056</v>
       </c>
@@ -65864,29 +65919,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
